--- a/Lab4/GLCM Test Results.xlsx
+++ b/Lab4/GLCM Test Results.xlsx
@@ -14,12 +14,663 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>apple10-090-112.png</t>
-  </si>
-  <si>
-    <t>car14-000-000.png</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
+  <si>
+    <t>obj100__10.png</t>
+  </si>
+  <si>
+    <t>obj100__110.png</t>
+  </si>
+  <si>
+    <t>obj100__160.png</t>
+  </si>
+  <si>
+    <t>obj100__210.png</t>
+  </si>
+  <si>
+    <t>obj100__260.png</t>
+  </si>
+  <si>
+    <t>obj100__310.png</t>
+  </si>
+  <si>
+    <t>obj100__60.png</t>
+  </si>
+  <si>
+    <t>obj70__210.png</t>
+  </si>
+  <si>
+    <t>obj70__260.png</t>
+  </si>
+  <si>
+    <t>obj70__310.png</t>
+  </si>
+  <si>
+    <t>obj71__0.png</t>
+  </si>
+  <si>
+    <t>obj71__100.png</t>
+  </si>
+  <si>
+    <t>obj71__150.png</t>
+  </si>
+  <si>
+    <t>obj71__200.png</t>
+  </si>
+  <si>
+    <t>obj71__250.png</t>
+  </si>
+  <si>
+    <t>obj71__300.png</t>
+  </si>
+  <si>
+    <t>obj71__350.png</t>
+  </si>
+  <si>
+    <t>obj71__50.png</t>
+  </si>
+  <si>
+    <t>obj72__140.png</t>
+  </si>
+  <si>
+    <t>obj72__190.png</t>
+  </si>
+  <si>
+    <t>obj72__240.png</t>
+  </si>
+  <si>
+    <t>obj72__290.png</t>
+  </si>
+  <si>
+    <t>obj72__340.png</t>
+  </si>
+  <si>
+    <t>obj72__40.png</t>
+  </si>
+  <si>
+    <t>obj72__90.png</t>
+  </si>
+  <si>
+    <t>obj73__130.png</t>
+  </si>
+  <si>
+    <t>obj73__180.png</t>
+  </si>
+  <si>
+    <t>obj73__230.png</t>
+  </si>
+  <si>
+    <t>obj73__280.png</t>
+  </si>
+  <si>
+    <t>obj73__30.png</t>
+  </si>
+  <si>
+    <t>obj73__330.png</t>
+  </si>
+  <si>
+    <t>obj73__80.png</t>
+  </si>
+  <si>
+    <t>obj74__120.png</t>
+  </si>
+  <si>
+    <t>obj74__170.png</t>
+  </si>
+  <si>
+    <t>obj74__20.png</t>
+  </si>
+  <si>
+    <t>obj74__220.png</t>
+  </si>
+  <si>
+    <t>obj74__270.png</t>
+  </si>
+  <si>
+    <t>obj74__320.png</t>
+  </si>
+  <si>
+    <t>obj74__70.png</t>
+  </si>
+  <si>
+    <t>obj75__10.png</t>
+  </si>
+  <si>
+    <t>obj75__110.png</t>
+  </si>
+  <si>
+    <t>obj75__160.png</t>
+  </si>
+  <si>
+    <t>obj75__210.png</t>
+  </si>
+  <si>
+    <t>obj75__260.png</t>
+  </si>
+  <si>
+    <t>obj75__310.png</t>
+  </si>
+  <si>
+    <t>obj75__60.png</t>
+  </si>
+  <si>
+    <t>obj76__0.png</t>
+  </si>
+  <si>
+    <t>obj76__100.png</t>
+  </si>
+  <si>
+    <t>obj76__150.png</t>
+  </si>
+  <si>
+    <t>obj76__200.png</t>
+  </si>
+  <si>
+    <t>obj76__250.png</t>
+  </si>
+  <si>
+    <t>obj76__300.png</t>
+  </si>
+  <si>
+    <t>obj76__350.png</t>
+  </si>
+  <si>
+    <t>obj76__50.png</t>
+  </si>
+  <si>
+    <t>obj77__140.png</t>
+  </si>
+  <si>
+    <t>obj77__190.png</t>
+  </si>
+  <si>
+    <t>obj77__240.png</t>
+  </si>
+  <si>
+    <t>obj77__290.png</t>
+  </si>
+  <si>
+    <t>obj77__340.png</t>
+  </si>
+  <si>
+    <t>obj77__40.png</t>
+  </si>
+  <si>
+    <t>obj77__90.png</t>
+  </si>
+  <si>
+    <t>obj78__130.png</t>
+  </si>
+  <si>
+    <t>obj78__180.png</t>
+  </si>
+  <si>
+    <t>obj78__230.png</t>
+  </si>
+  <si>
+    <t>obj78__280.png</t>
+  </si>
+  <si>
+    <t>obj78__30.png</t>
+  </si>
+  <si>
+    <t>obj78__330.png</t>
+  </si>
+  <si>
+    <t>obj78__80.png</t>
+  </si>
+  <si>
+    <t>obj79__120.png</t>
+  </si>
+  <si>
+    <t>obj79__170.png</t>
+  </si>
+  <si>
+    <t>obj79__20.png</t>
+  </si>
+  <si>
+    <t>obj79__220.png</t>
+  </si>
+  <si>
+    <t>obj79__270.png</t>
+  </si>
+  <si>
+    <t>obj79__320.png</t>
+  </si>
+  <si>
+    <t>obj79__70.png</t>
+  </si>
+  <si>
+    <t>obj80__10.png</t>
+  </si>
+  <si>
+    <t>obj80__110.png</t>
+  </si>
+  <si>
+    <t>obj80__160.png</t>
+  </si>
+  <si>
+    <t>obj80__210.png</t>
+  </si>
+  <si>
+    <t>obj80__260.png</t>
+  </si>
+  <si>
+    <t>obj80__310.png</t>
+  </si>
+  <si>
+    <t>obj80__60.png</t>
+  </si>
+  <si>
+    <t>obj81__0.png</t>
+  </si>
+  <si>
+    <t>obj81__100.png</t>
+  </si>
+  <si>
+    <t>obj81__150.png</t>
+  </si>
+  <si>
+    <t>obj81__200.png</t>
+  </si>
+  <si>
+    <t>obj81__250.png</t>
+  </si>
+  <si>
+    <t>obj81__300.png</t>
+  </si>
+  <si>
+    <t>obj81__350.png</t>
+  </si>
+  <si>
+    <t>obj81__50.png</t>
+  </si>
+  <si>
+    <t>obj82__140.png</t>
+  </si>
+  <si>
+    <t>obj82__190.png</t>
+  </si>
+  <si>
+    <t>obj82__240.png</t>
+  </si>
+  <si>
+    <t>obj82__290.png</t>
+  </si>
+  <si>
+    <t>obj82__340.png</t>
+  </si>
+  <si>
+    <t>obj82__40.png</t>
+  </si>
+  <si>
+    <t>obj82__90.png</t>
+  </si>
+  <si>
+    <t>obj83__130.png</t>
+  </si>
+  <si>
+    <t>obj83__180.png</t>
+  </si>
+  <si>
+    <t>obj83__230.png</t>
+  </si>
+  <si>
+    <t>obj83__280.png</t>
+  </si>
+  <si>
+    <t>obj83__30.png</t>
+  </si>
+  <si>
+    <t>obj83__330.png</t>
+  </si>
+  <si>
+    <t>obj83__80.png</t>
+  </si>
+  <si>
+    <t>obj84__120.png</t>
+  </si>
+  <si>
+    <t>obj84__170.png</t>
+  </si>
+  <si>
+    <t>obj84__20.png</t>
+  </si>
+  <si>
+    <t>obj84__220.png</t>
+  </si>
+  <si>
+    <t>obj84__270.png</t>
+  </si>
+  <si>
+    <t>obj84__320.png</t>
+  </si>
+  <si>
+    <t>obj84__70.png</t>
+  </si>
+  <si>
+    <t>obj85__10.png</t>
+  </si>
+  <si>
+    <t>obj85__110.png</t>
+  </si>
+  <si>
+    <t>obj85__160.png</t>
+  </si>
+  <si>
+    <t>obj85__210.png</t>
+  </si>
+  <si>
+    <t>obj85__260.png</t>
+  </si>
+  <si>
+    <t>obj85__310.png</t>
+  </si>
+  <si>
+    <t>obj85__60.png</t>
+  </si>
+  <si>
+    <t>obj86__0.png</t>
+  </si>
+  <si>
+    <t>obj86__100.png</t>
+  </si>
+  <si>
+    <t>obj86__150.png</t>
+  </si>
+  <si>
+    <t>obj86__200.png</t>
+  </si>
+  <si>
+    <t>obj86__250.png</t>
+  </si>
+  <si>
+    <t>obj86__300.png</t>
+  </si>
+  <si>
+    <t>obj86__350.png</t>
+  </si>
+  <si>
+    <t>obj86__50.png</t>
+  </si>
+  <si>
+    <t>obj87__140.png</t>
+  </si>
+  <si>
+    <t>obj87__190.png</t>
+  </si>
+  <si>
+    <t>obj87__240.png</t>
+  </si>
+  <si>
+    <t>obj87__290.png</t>
+  </si>
+  <si>
+    <t>obj87__340.png</t>
+  </si>
+  <si>
+    <t>obj87__40.png</t>
+  </si>
+  <si>
+    <t>obj87__90.png</t>
+  </si>
+  <si>
+    <t>obj88__130.png</t>
+  </si>
+  <si>
+    <t>obj88__180.png</t>
+  </si>
+  <si>
+    <t>obj88__230.png</t>
+  </si>
+  <si>
+    <t>obj88__280.png</t>
+  </si>
+  <si>
+    <t>obj88__30.png</t>
+  </si>
+  <si>
+    <t>obj88__330.png</t>
+  </si>
+  <si>
+    <t>obj88__80.png</t>
+  </si>
+  <si>
+    <t>obj89__120.png</t>
+  </si>
+  <si>
+    <t>obj89__170.png</t>
+  </si>
+  <si>
+    <t>obj89__20.png</t>
+  </si>
+  <si>
+    <t>obj89__220.png</t>
+  </si>
+  <si>
+    <t>obj89__270.png</t>
+  </si>
+  <si>
+    <t>obj89__320.png</t>
+  </si>
+  <si>
+    <t>obj89__70.png</t>
+  </si>
+  <si>
+    <t>obj90__10.png</t>
+  </si>
+  <si>
+    <t>obj90__110.png</t>
+  </si>
+  <si>
+    <t>obj90__160.png</t>
+  </si>
+  <si>
+    <t>obj90__210.png</t>
+  </si>
+  <si>
+    <t>obj90__260.png</t>
+  </si>
+  <si>
+    <t>obj90__310.png</t>
+  </si>
+  <si>
+    <t>obj90__60.png</t>
+  </si>
+  <si>
+    <t>obj91__0.png</t>
+  </si>
+  <si>
+    <t>obj91__100.png</t>
+  </si>
+  <si>
+    <t>obj91__150.png</t>
+  </si>
+  <si>
+    <t>obj91__200.png</t>
+  </si>
+  <si>
+    <t>obj91__250.png</t>
+  </si>
+  <si>
+    <t>obj91__300.png</t>
+  </si>
+  <si>
+    <t>obj91__350.png</t>
+  </si>
+  <si>
+    <t>obj91__50.png</t>
+  </si>
+  <si>
+    <t>obj92__140.png</t>
+  </si>
+  <si>
+    <t>obj92__190.png</t>
+  </si>
+  <si>
+    <t>obj92__240.png</t>
+  </si>
+  <si>
+    <t>obj92__290.png</t>
+  </si>
+  <si>
+    <t>obj92__340.png</t>
+  </si>
+  <si>
+    <t>obj92__40.png</t>
+  </si>
+  <si>
+    <t>obj92__90.png</t>
+  </si>
+  <si>
+    <t>obj93__130.png</t>
+  </si>
+  <si>
+    <t>obj93__180.png</t>
+  </si>
+  <si>
+    <t>obj93__230.png</t>
+  </si>
+  <si>
+    <t>obj93__280.png</t>
+  </si>
+  <si>
+    <t>obj93__30.png</t>
+  </si>
+  <si>
+    <t>obj93__330.png</t>
+  </si>
+  <si>
+    <t>obj93__80.png</t>
+  </si>
+  <si>
+    <t>obj94__120.png</t>
+  </si>
+  <si>
+    <t>obj94__170.png</t>
+  </si>
+  <si>
+    <t>obj94__20.png</t>
+  </si>
+  <si>
+    <t>obj94__220.png</t>
+  </si>
+  <si>
+    <t>obj94__270.png</t>
+  </si>
+  <si>
+    <t>obj94__320.png</t>
+  </si>
+  <si>
+    <t>obj94__70.png</t>
+  </si>
+  <si>
+    <t>obj95__10.png</t>
+  </si>
+  <si>
+    <t>obj95__110.png</t>
+  </si>
+  <si>
+    <t>obj95__160.png</t>
+  </si>
+  <si>
+    <t>obj95__210.png</t>
+  </si>
+  <si>
+    <t>obj95__260.png</t>
+  </si>
+  <si>
+    <t>obj95__310.png</t>
+  </si>
+  <si>
+    <t>obj95__60.png</t>
+  </si>
+  <si>
+    <t>obj96__0.png</t>
+  </si>
+  <si>
+    <t>obj96__100.png</t>
+  </si>
+  <si>
+    <t>obj96__150.png</t>
+  </si>
+  <si>
+    <t>obj96__200.png</t>
+  </si>
+  <si>
+    <t>obj96__250.png</t>
+  </si>
+  <si>
+    <t>obj96__300.png</t>
+  </si>
+  <si>
+    <t>obj96__350.png</t>
+  </si>
+  <si>
+    <t>obj96__50.png</t>
+  </si>
+  <si>
+    <t>obj97__140.png</t>
+  </si>
+  <si>
+    <t>obj97__190.png</t>
+  </si>
+  <si>
+    <t>obj97__240.png</t>
+  </si>
+  <si>
+    <t>obj97__290.png</t>
+  </si>
+  <si>
+    <t>obj97__340.png</t>
+  </si>
+  <si>
+    <t>obj97__40.png</t>
+  </si>
+  <si>
+    <t>obj97__90.png</t>
+  </si>
+  <si>
+    <t>obj98__130.png</t>
+  </si>
+  <si>
+    <t>obj98__180.png</t>
+  </si>
+  <si>
+    <t>obj98__230.png</t>
+  </si>
+  <si>
+    <t>obj98__280.png</t>
+  </si>
+  <si>
+    <t>obj98__30.png</t>
+  </si>
+  <si>
+    <t>obj98__330.png</t>
+  </si>
+  <si>
+    <t>obj98__80.png</t>
+  </si>
+  <si>
+    <t>obj99__120.png</t>
+  </si>
+  <si>
+    <t>obj99__170.png</t>
+  </si>
+  <si>
+    <t>obj99__20.png</t>
+  </si>
+  <si>
+    <t>obj99__220.png</t>
+  </si>
+  <si>
+    <t>obj99__270.png</t>
+  </si>
+  <si>
+    <t>obj99__320.png</t>
+  </si>
+  <si>
+    <t>obj99__70.png</t>
   </si>
   <si>
     <t>File Name</t>
@@ -372,7 +1023,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G4"/>
+  <dimension ref="A2:G221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,25 +1031,25 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>221</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>222</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>223</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>224</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -406,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0.01992953431372549</v>
+        <v>0.5219611220472441</v>
       </c>
       <c r="C3">
-        <v>24.77336090686275</v>
+        <v>29.89259350393701</v>
       </c>
       <c r="D3">
-        <v>0.9943213210401848</v>
+        <v>0.9774982242594239</v>
       </c>
       <c r="E3">
-        <v>0.4556511523024728</v>
+        <v>0.7051789856209912</v>
       </c>
       <c r="F3">
-        <v>0.06545419349922592</v>
+        <v>0.5227475306446682</v>
       </c>
       <c r="G3">
-        <v>6.553796494268155</v>
+        <v>3.849026711086021</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -429,22 +1080,5013 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.001868872549019608</v>
+        <v>0.2333292322834646</v>
       </c>
       <c r="C4">
-        <v>188.6758884803922</v>
+        <v>34.97453248031498</v>
       </c>
       <c r="D4">
-        <v>0.9422870602571634</v>
+        <v>0.9817566707266377</v>
       </c>
       <c r="E4">
-        <v>0.173058234475595</v>
+        <v>0.5545410483005507</v>
       </c>
       <c r="F4">
-        <v>0.02394250996011821</v>
+        <v>0.2375437440441854</v>
       </c>
       <c r="G4">
-        <v>6.772015373143423</v>
+        <v>5.48514101283877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0.4960629921259843</v>
+      </c>
+      <c r="C5">
+        <v>36.94869586614173</v>
+      </c>
+      <c r="D5">
+        <v>0.9787161595112547</v>
+      </c>
+      <c r="E5">
+        <v>0.6856687595296128</v>
+      </c>
+      <c r="F5">
+        <v>0.4970889462917151</v>
+      </c>
+      <c r="G5">
+        <v>4.068993755766794</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0.4189837598425197</v>
+      </c>
+      <c r="C6">
+        <v>45.13908710629923</v>
+      </c>
+      <c r="D6">
+        <v>0.9728853856676398</v>
+      </c>
+      <c r="E6">
+        <v>0.6419046584997783</v>
+      </c>
+      <c r="F6">
+        <v>0.4209583272127034</v>
+      </c>
+      <c r="G6">
+        <v>4.372007857676724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0.1435162401574803</v>
+      </c>
+      <c r="C7">
+        <v>71.52269931102364</v>
+      </c>
+      <c r="D7">
+        <v>0.9784258877371245</v>
+      </c>
+      <c r="E7">
+        <v>0.4750602997649795</v>
+      </c>
+      <c r="F7">
+        <v>0.1523420018895191</v>
+      </c>
+      <c r="G7">
+        <v>6.077348808657874</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0.2550442913385827</v>
+      </c>
+      <c r="C8">
+        <v>64.4367002952756</v>
+      </c>
+      <c r="D8">
+        <v>0.9722096391059181</v>
+      </c>
+      <c r="E8">
+        <v>0.5465846463294133</v>
+      </c>
+      <c r="F8">
+        <v>0.2671577555354217</v>
+      </c>
+      <c r="G8">
+        <v>5.082586151037449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>0.4335629921259843</v>
+      </c>
+      <c r="C9">
+        <v>28.21512057086615</v>
+      </c>
+      <c r="D9">
+        <v>0.9834845207449201</v>
+      </c>
+      <c r="E9">
+        <v>0.6576317751830022</v>
+      </c>
+      <c r="F9">
+        <v>0.4346913193695666</v>
+      </c>
+      <c r="G9">
+        <v>4.449255969953478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>0.02583661417322835</v>
+      </c>
+      <c r="C10">
+        <v>47.1228469488189</v>
+      </c>
+      <c r="D10">
+        <v>0.9917339241256226</v>
+      </c>
+      <c r="E10">
+        <v>0.4962939576706835</v>
+      </c>
+      <c r="F10">
+        <v>0.04999292912455834</v>
+      </c>
+      <c r="G10">
+        <v>6.939338410093748</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>0.02552903543307087</v>
+      </c>
+      <c r="C11">
+        <v>62.37370816929135</v>
+      </c>
+      <c r="D11">
+        <v>0.9914281629633985</v>
+      </c>
+      <c r="E11">
+        <v>0.4625596339925705</v>
+      </c>
+      <c r="F11">
+        <v>0.04648055183421435</v>
+      </c>
+      <c r="G11">
+        <v>7.042594559236723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>0.02146899606299213</v>
+      </c>
+      <c r="C12">
+        <v>61.3394438976378</v>
+      </c>
+      <c r="D12">
+        <v>0.9910466335054025</v>
+      </c>
+      <c r="E12">
+        <v>0.4719384848264668</v>
+      </c>
+      <c r="F12">
+        <v>0.04646990567932837</v>
+      </c>
+      <c r="G12">
+        <v>6.957726270261706</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0.2175196850393701</v>
+      </c>
+      <c r="C13">
+        <v>93.45687746062994</v>
+      </c>
+      <c r="D13">
+        <v>0.9869163870818752</v>
+      </c>
+      <c r="E13">
+        <v>0.4866197220647824</v>
+      </c>
+      <c r="F13">
+        <v>0.2190496969471297</v>
+      </c>
+      <c r="G13">
+        <v>6.276326763265668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>0.2102608267716535</v>
+      </c>
+      <c r="C14">
+        <v>43.33212352362206</v>
+      </c>
+      <c r="D14">
+        <v>0.9929054445913855</v>
+      </c>
+      <c r="E14">
+        <v>0.5224853137765001</v>
+      </c>
+      <c r="F14">
+        <v>0.2130021794427852</v>
+      </c>
+      <c r="G14">
+        <v>5.836117241371328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>0.2112450787401575</v>
+      </c>
+      <c r="C15">
+        <v>49.83839812992125</v>
+      </c>
+      <c r="D15">
+        <v>0.9923625202138961</v>
+      </c>
+      <c r="E15">
+        <v>0.5381764798133764</v>
+      </c>
+      <c r="F15">
+        <v>0.2141217744621216</v>
+      </c>
+      <c r="G15">
+        <v>5.847152165113926</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>0.219242125984252</v>
+      </c>
+      <c r="C16">
+        <v>54.20441683070867</v>
+      </c>
+      <c r="D16">
+        <v>0.9920055079692248</v>
+      </c>
+      <c r="E16">
+        <v>0.5429911214106943</v>
+      </c>
+      <c r="F16">
+        <v>0.2217407946021481</v>
+      </c>
+      <c r="G16">
+        <v>6.002225454007093</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>0.2151820866141732</v>
+      </c>
+      <c r="C17">
+        <v>63.14493110236222</v>
+      </c>
+      <c r="D17">
+        <v>0.9909319054521276</v>
+      </c>
+      <c r="E17">
+        <v>0.5233144363428816</v>
+      </c>
+      <c r="F17">
+        <v>0.21737198666145</v>
+      </c>
+      <c r="G17">
+        <v>6.060576584582106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>0.2149975393700787</v>
+      </c>
+      <c r="C18">
+        <v>86.58046259842521</v>
+      </c>
+      <c r="D18">
+        <v>0.9883187781089109</v>
+      </c>
+      <c r="E18">
+        <v>0.5093394831355473</v>
+      </c>
+      <c r="F18">
+        <v>0.2170763102152128</v>
+      </c>
+      <c r="G18">
+        <v>6.115652531998953</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>0.2177042322834646</v>
+      </c>
+      <c r="C19">
+        <v>103.0786171259843</v>
+      </c>
+      <c r="D19">
+        <v>0.9860104992094846</v>
+      </c>
+      <c r="E19">
+        <v>0.4800132745155747</v>
+      </c>
+      <c r="F19">
+        <v>0.2191664782510869</v>
+      </c>
+      <c r="G19">
+        <v>6.279197679067071</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>0.2070004921259843</v>
+      </c>
+      <c r="C20">
+        <v>60.6656003937008</v>
+      </c>
+      <c r="D20">
+        <v>0.9903952310214321</v>
+      </c>
+      <c r="E20">
+        <v>0.4857036606936257</v>
+      </c>
+      <c r="F20">
+        <v>0.2090408667658055</v>
+      </c>
+      <c r="G20">
+        <v>6.126790392786009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>0.3079478346456693</v>
+      </c>
+      <c r="C21">
+        <v>127.5687746062992</v>
+      </c>
+      <c r="D21">
+        <v>0.9816097510857624</v>
+      </c>
+      <c r="E21">
+        <v>0.51302443987862</v>
+      </c>
+      <c r="F21">
+        <v>0.3089346987563095</v>
+      </c>
+      <c r="G21">
+        <v>5.873807380272865</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>0.3006274606299212</v>
+      </c>
+      <c r="C22">
+        <v>133.3777682086615</v>
+      </c>
+      <c r="D22">
+        <v>0.9791785265039413</v>
+      </c>
+      <c r="E22">
+        <v>0.5127202863723179</v>
+      </c>
+      <c r="F22">
+        <v>0.3015807523905452</v>
+      </c>
+      <c r="G22">
+        <v>5.892172862035512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>0.3060408464566929</v>
+      </c>
+      <c r="C23">
+        <v>126.5834153543308</v>
+      </c>
+      <c r="D23">
+        <v>0.9798138909372995</v>
+      </c>
+      <c r="E23">
+        <v>0.5199692837355582</v>
+      </c>
+      <c r="F23">
+        <v>0.3071294485494247</v>
+      </c>
+      <c r="G23">
+        <v>5.85845548296786</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>0.2928764763779528</v>
+      </c>
+      <c r="C24">
+        <v>154.5377706692914</v>
+      </c>
+      <c r="D24">
+        <v>0.9778591227327379</v>
+      </c>
+      <c r="E24">
+        <v>0.5064914868622102</v>
+      </c>
+      <c r="F24">
+        <v>0.2939557810099047</v>
+      </c>
+      <c r="G24">
+        <v>5.965988435709203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>0.3098548228346457</v>
+      </c>
+      <c r="C25">
+        <v>137.0210383858268</v>
+      </c>
+      <c r="D25">
+        <v>0.9788356357424198</v>
+      </c>
+      <c r="E25">
+        <v>0.5114154616339347</v>
+      </c>
+      <c r="F25">
+        <v>0.3107902406355635</v>
+      </c>
+      <c r="G25">
+        <v>5.860301238959678</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>0.313607283464567</v>
+      </c>
+      <c r="C26">
+        <v>129.6241387795276</v>
+      </c>
+      <c r="D26">
+        <v>0.9795732107157222</v>
+      </c>
+      <c r="E26">
+        <v>0.5132357818686707</v>
+      </c>
+      <c r="F26">
+        <v>0.3145547128430229</v>
+      </c>
+      <c r="G26">
+        <v>5.869193422264989</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>0.3150836614173229</v>
+      </c>
+      <c r="C27">
+        <v>122.8793676181102</v>
+      </c>
+      <c r="D27">
+        <v>0.9807860796329593</v>
+      </c>
+      <c r="E27">
+        <v>0.5102941878651194</v>
+      </c>
+      <c r="F27">
+        <v>0.3160035355917842</v>
+      </c>
+      <c r="G27">
+        <v>5.80462603210856</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>0.3243725393700788</v>
+      </c>
+      <c r="C28">
+        <v>24.85156250000001</v>
+      </c>
+      <c r="D28">
+        <v>0.9953500799674568</v>
+      </c>
+      <c r="E28">
+        <v>0.5837531466284672</v>
+      </c>
+      <c r="F28">
+        <v>0.3254270866259819</v>
+      </c>
+      <c r="G28">
+        <v>5.679507005572157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>0.3131766732283465</v>
+      </c>
+      <c r="C29">
+        <v>21.61048228346457</v>
+      </c>
+      <c r="D29">
+        <v>0.9954875834971013</v>
+      </c>
+      <c r="E29">
+        <v>0.5863903464431683</v>
+      </c>
+      <c r="F29">
+        <v>0.3147653860645415</v>
+      </c>
+      <c r="G29">
+        <v>5.561116406016531</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>0.3021653543307087</v>
+      </c>
+      <c r="C30">
+        <v>18.5914124015748</v>
+      </c>
+      <c r="D30">
+        <v>0.9955590405038593</v>
+      </c>
+      <c r="E30">
+        <v>0.5953727934089826</v>
+      </c>
+      <c r="F30">
+        <v>0.304317982722871</v>
+      </c>
+      <c r="G30">
+        <v>5.601578935351486</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>0.3218503937007874</v>
+      </c>
+      <c r="C31">
+        <v>30.88711860236221</v>
+      </c>
+      <c r="D31">
+        <v>0.9929968381755874</v>
+      </c>
+      <c r="E31">
+        <v>0.6002208876323704</v>
+      </c>
+      <c r="F31">
+        <v>0.3230698916880093</v>
+      </c>
+      <c r="G31">
+        <v>5.587277609960873</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>0.3394438976377953</v>
+      </c>
+      <c r="C32">
+        <v>29.70872293307087</v>
+      </c>
+      <c r="D32">
+        <v>0.9948265800960037</v>
+      </c>
+      <c r="E32">
+        <v>0.5937037031977082</v>
+      </c>
+      <c r="F32">
+        <v>0.3404778093350486</v>
+      </c>
+      <c r="G32">
+        <v>5.637335258773162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>0.3555610236220472</v>
+      </c>
+      <c r="C33">
+        <v>32.8372908464567</v>
+      </c>
+      <c r="D33">
+        <v>0.9939695786277989</v>
+      </c>
+      <c r="E33">
+        <v>0.6131564462134351</v>
+      </c>
+      <c r="F33">
+        <v>0.3564177848649758</v>
+      </c>
+      <c r="G33">
+        <v>5.510105713732704</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>0.3310162401574803</v>
+      </c>
+      <c r="C34">
+        <v>27.19777312992127</v>
+      </c>
+      <c r="D34">
+        <v>0.9953248107855359</v>
+      </c>
+      <c r="E34">
+        <v>0.5904964955886343</v>
+      </c>
+      <c r="F34">
+        <v>0.3319545516038601</v>
+      </c>
+      <c r="G34">
+        <v>5.684242243491446</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>0.04601377952755906</v>
+      </c>
+      <c r="C35">
+        <v>77.37161663385825</v>
+      </c>
+      <c r="D35">
+        <v>0.9903227221405778</v>
+      </c>
+      <c r="E35">
+        <v>0.4788311136042412</v>
+      </c>
+      <c r="F35">
+        <v>0.08948889139455952</v>
+      </c>
+      <c r="G35">
+        <v>6.383769523916103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>0.2073080708661417</v>
+      </c>
+      <c r="C36">
+        <v>57.27694389763779</v>
+      </c>
+      <c r="D36">
+        <v>0.9928689833034967</v>
+      </c>
+      <c r="E36">
+        <v>0.5366895147667275</v>
+      </c>
+      <c r="F36">
+        <v>0.2141305666296321</v>
+      </c>
+      <c r="G36">
+        <v>5.907655360257856</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>0.1786417322834646</v>
+      </c>
+      <c r="C37">
+        <v>57.27140748031498</v>
+      </c>
+      <c r="D37">
+        <v>0.992834132957728</v>
+      </c>
+      <c r="E37">
+        <v>0.5287763956951992</v>
+      </c>
+      <c r="F37">
+        <v>0.1861228009406052</v>
+      </c>
+      <c r="G37">
+        <v>6.130675443699088</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>0.148683562992126</v>
+      </c>
+      <c r="C38">
+        <v>62.60340797244095</v>
+      </c>
+      <c r="D38">
+        <v>0.9923010054046696</v>
+      </c>
+      <c r="E38">
+        <v>0.501330942830255</v>
+      </c>
+      <c r="F38">
+        <v>0.1544436377985696</v>
+      </c>
+      <c r="G38">
+        <v>6.436208225609461</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>0.04441437007874015</v>
+      </c>
+      <c r="C39">
+        <v>75.72367125984253</v>
+      </c>
+      <c r="D39">
+        <v>0.9899566687005028</v>
+      </c>
+      <c r="E39">
+        <v>0.4502999277494925</v>
+      </c>
+      <c r="F39">
+        <v>0.06904082892862037</v>
+      </c>
+      <c r="G39">
+        <v>6.798412388193947</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>0.1358267716535433</v>
+      </c>
+      <c r="C40">
+        <v>71.64283956692913</v>
+      </c>
+      <c r="D40">
+        <v>0.9912317759372574</v>
+      </c>
+      <c r="E40">
+        <v>0.4912393171004711</v>
+      </c>
+      <c r="F40">
+        <v>0.145151136124967</v>
+      </c>
+      <c r="G40">
+        <v>6.450269981898039</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>0.08372293307086615</v>
+      </c>
+      <c r="C41">
+        <v>68.61608021653544</v>
+      </c>
+      <c r="D41">
+        <v>0.9907358899673612</v>
+      </c>
+      <c r="E41">
+        <v>0.5121766530222205</v>
+      </c>
+      <c r="F41">
+        <v>0.1040655384039116</v>
+      </c>
+      <c r="G41">
+        <v>6.421829122129612</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>0.2127214566929134</v>
+      </c>
+      <c r="C42">
+        <v>21.9230437992126</v>
+      </c>
+      <c r="D42">
+        <v>0.9871589771013093</v>
+      </c>
+      <c r="E42">
+        <v>0.530181686149102</v>
+      </c>
+      <c r="F42">
+        <v>0.2181513527840921</v>
+      </c>
+      <c r="G42">
+        <v>5.595076380774722</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>0.09639517716535433</v>
+      </c>
+      <c r="C43">
+        <v>22.92396653543307</v>
+      </c>
+      <c r="D43">
+        <v>0.9879670118732338</v>
+      </c>
+      <c r="E43">
+        <v>0.4125355546911283</v>
+      </c>
+      <c r="F43">
+        <v>0.1052706020987851</v>
+      </c>
+      <c r="G43">
+        <v>6.325251034605976</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>0.2473548228346457</v>
+      </c>
+      <c r="C44">
+        <v>15.98948080708662</v>
+      </c>
+      <c r="D44">
+        <v>0.9874562643576842</v>
+      </c>
+      <c r="E44">
+        <v>0.5437668879722157</v>
+      </c>
+      <c r="F44">
+        <v>0.2522400346633823</v>
+      </c>
+      <c r="G44">
+        <v>5.412714354556375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>0.1666461614173228</v>
+      </c>
+      <c r="C45">
+        <v>16.90551181102363</v>
+      </c>
+      <c r="D45">
+        <v>0.9852185326741506</v>
+      </c>
+      <c r="E45">
+        <v>0.5158237085483842</v>
+      </c>
+      <c r="F45">
+        <v>0.1758766650067982</v>
+      </c>
+      <c r="G45">
+        <v>5.574766195968089</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>0.08913631889763779</v>
+      </c>
+      <c r="C46">
+        <v>19.33981299212599</v>
+      </c>
+      <c r="D46">
+        <v>0.985263944556282</v>
+      </c>
+      <c r="E46">
+        <v>0.4512892475568347</v>
+      </c>
+      <c r="F46">
+        <v>0.1032082559411578</v>
+      </c>
+      <c r="G46">
+        <v>5.975583717895206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>0.1070374015748032</v>
+      </c>
+      <c r="C47">
+        <v>17.09405757874016</v>
+      </c>
+      <c r="D47">
+        <v>0.9820073537284467</v>
+      </c>
+      <c r="E47">
+        <v>0.5188201493811929</v>
+      </c>
+      <c r="F47">
+        <v>0.131367906139927</v>
+      </c>
+      <c r="G47">
+        <v>5.65880392523371</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48">
+        <v>0.1115280511811024</v>
+      </c>
+      <c r="C48">
+        <v>29.58599901574804</v>
+      </c>
+      <c r="D48">
+        <v>0.9902310703263849</v>
+      </c>
+      <c r="E48">
+        <v>0.4132857362419804</v>
+      </c>
+      <c r="F48">
+        <v>0.1206622185137175</v>
+      </c>
+      <c r="G48">
+        <v>6.451046217664572</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49">
+        <v>0.6983267716535433</v>
+      </c>
+      <c r="C49">
+        <v>57.89554625984254</v>
+      </c>
+      <c r="D49">
+        <v>0.974433272997409</v>
+      </c>
+      <c r="E49">
+        <v>0.786583526036699</v>
+      </c>
+      <c r="F49">
+        <v>0.6984451328349957</v>
+      </c>
+      <c r="G49">
+        <v>2.868277784261797</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50">
+        <v>0.2254552165354331</v>
+      </c>
+      <c r="C50">
+        <v>48.72336368110238</v>
+      </c>
+      <c r="D50">
+        <v>0.9890357763974129</v>
+      </c>
+      <c r="E50">
+        <v>0.52996164950564</v>
+      </c>
+      <c r="F50">
+        <v>0.2285615279500668</v>
+      </c>
+      <c r="G50">
+        <v>5.860937447301057</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51">
+        <v>0.6651082677165354</v>
+      </c>
+      <c r="C51">
+        <v>57.49514025590553</v>
+      </c>
+      <c r="D51">
+        <v>0.9764922683466269</v>
+      </c>
+      <c r="E51">
+        <v>0.7673781694337625</v>
+      </c>
+      <c r="F51">
+        <v>0.665556336278569</v>
+      </c>
+      <c r="G51">
+        <v>3.057836116133811</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52">
+        <v>0.6696604330708661</v>
+      </c>
+      <c r="C52">
+        <v>52.03924704724411</v>
+      </c>
+      <c r="D52">
+        <v>0.9761024587739821</v>
+      </c>
+      <c r="E52">
+        <v>0.7653864174992773</v>
+      </c>
+      <c r="F52">
+        <v>0.6698836080290125</v>
+      </c>
+      <c r="G52">
+        <v>3.002215691611113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53">
+        <v>0.3392593503937008</v>
+      </c>
+      <c r="C53">
+        <v>55.50467519685041</v>
+      </c>
+      <c r="D53">
+        <v>0.9866492678803013</v>
+      </c>
+      <c r="E53">
+        <v>0.5675664675704566</v>
+      </c>
+      <c r="F53">
+        <v>0.3416982248632978</v>
+      </c>
+      <c r="G53">
+        <v>5.174514576555792</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54">
+        <v>0.4399606299212598</v>
+      </c>
+      <c r="C54">
+        <v>63.03069635826773</v>
+      </c>
+      <c r="D54">
+        <v>0.9819333651114053</v>
+      </c>
+      <c r="E54">
+        <v>0.6399615541654041</v>
+      </c>
+      <c r="F54">
+        <v>0.4429794782852265</v>
+      </c>
+      <c r="G54">
+        <v>4.290392334080805</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55">
+        <v>0.6680610236220472</v>
+      </c>
+      <c r="C55">
+        <v>57.13238188976381</v>
+      </c>
+      <c r="D55">
+        <v>0.9767288247512818</v>
+      </c>
+      <c r="E55">
+        <v>0.7699479115834788</v>
+      </c>
+      <c r="F55">
+        <v>0.6683122110194137</v>
+      </c>
+      <c r="G55">
+        <v>3.072380416882787</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56">
+        <v>0.5835999015748031</v>
+      </c>
+      <c r="C56">
+        <v>34.92568897637795</v>
+      </c>
+      <c r="D56">
+        <v>0.9854189140802503</v>
+      </c>
+      <c r="E56">
+        <v>0.7265501760129343</v>
+      </c>
+      <c r="F56">
+        <v>0.5842592639323094</v>
+      </c>
+      <c r="G56">
+        <v>3.58812536180666</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57">
+        <v>0.1804872047244095</v>
+      </c>
+      <c r="C57">
+        <v>51.59251968503936</v>
+      </c>
+      <c r="D57">
+        <v>0.991093286830846</v>
+      </c>
+      <c r="E57">
+        <v>0.5412581925535407</v>
+      </c>
+      <c r="F57">
+        <v>0.1911389077093726</v>
+      </c>
+      <c r="G57">
+        <v>5.76744842684733</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <v>0.1209399606299213</v>
+      </c>
+      <c r="C58">
+        <v>51.82750984251969</v>
+      </c>
+      <c r="D58">
+        <v>0.9868149710472691</v>
+      </c>
+      <c r="E58">
+        <v>0.5077827504926502</v>
+      </c>
+      <c r="F58">
+        <v>0.1373403034536667</v>
+      </c>
+      <c r="G58">
+        <v>5.844773259898913</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59">
+        <v>0.2362204724409449</v>
+      </c>
+      <c r="C59">
+        <v>46.20656988188976</v>
+      </c>
+      <c r="D59">
+        <v>0.9895442456185756</v>
+      </c>
+      <c r="E59">
+        <v>0.5520162791385171</v>
+      </c>
+      <c r="F59">
+        <v>0.2407819694936922</v>
+      </c>
+      <c r="G59">
+        <v>5.633982738114702</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60">
+        <v>0.3388902559055118</v>
+      </c>
+      <c r="C60">
+        <v>45.50049212598425</v>
+      </c>
+      <c r="D60">
+        <v>0.988715424125579</v>
+      </c>
+      <c r="E60">
+        <v>0.6002650593600959</v>
+      </c>
+      <c r="F60">
+        <v>0.3407917781432597</v>
+      </c>
+      <c r="G60">
+        <v>5.134962303263728</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61">
+        <v>0.09233513779527559</v>
+      </c>
+      <c r="C61">
+        <v>53.23658956692914</v>
+      </c>
+      <c r="D61">
+        <v>0.9910195468896743</v>
+      </c>
+      <c r="E61">
+        <v>0.4791040312049111</v>
+      </c>
+      <c r="F61">
+        <v>0.1086643084966688</v>
+      </c>
+      <c r="G61">
+        <v>6.233372439573943</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62">
+        <v>0.1681225393700787</v>
+      </c>
+      <c r="C62">
+        <v>41.23929625984251</v>
+      </c>
+      <c r="D62">
+        <v>0.990957057387203</v>
+      </c>
+      <c r="E62">
+        <v>0.5198139106124463</v>
+      </c>
+      <c r="F62">
+        <v>0.1791677552654944</v>
+      </c>
+      <c r="G62">
+        <v>5.755558439386031</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63">
+        <v>0.5913508858267716</v>
+      </c>
+      <c r="C63">
+        <v>48.19131397637795</v>
+      </c>
+      <c r="D63">
+        <v>0.9897036327267842</v>
+      </c>
+      <c r="E63">
+        <v>0.7179692615447639</v>
+      </c>
+      <c r="F63">
+        <v>0.5916165747483119</v>
+      </c>
+      <c r="G63">
+        <v>3.648135321871925</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64">
+        <v>0.3458415354330709</v>
+      </c>
+      <c r="C64">
+        <v>45.029281496063</v>
+      </c>
+      <c r="D64">
+        <v>0.9908536394675292</v>
+      </c>
+      <c r="E64">
+        <v>0.5513154181023179</v>
+      </c>
+      <c r="F64">
+        <v>0.3478659963562362</v>
+      </c>
+      <c r="G64">
+        <v>5.216284695136118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65">
+        <v>0.5894438976377953</v>
+      </c>
+      <c r="C65">
+        <v>29.60629921259844</v>
+      </c>
+      <c r="D65">
+        <v>0.9891426351277046</v>
+      </c>
+      <c r="E65">
+        <v>0.7396084259901418</v>
+      </c>
+      <c r="F65">
+        <v>0.5900852702362495</v>
+      </c>
+      <c r="G65">
+        <v>3.527730015612605</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66">
+        <v>0.4435285433070866</v>
+      </c>
+      <c r="C66">
+        <v>33.02405265748031</v>
+      </c>
+      <c r="D66">
+        <v>0.9901930171744894</v>
+      </c>
+      <c r="E66">
+        <v>0.6426048047162605</v>
+      </c>
+      <c r="F66">
+        <v>0.4445758687048409</v>
+      </c>
+      <c r="G66">
+        <v>4.62612396338936</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67">
+        <v>0.1495447834645669</v>
+      </c>
+      <c r="C67">
+        <v>32.66215551181103</v>
+      </c>
+      <c r="D67">
+        <v>0.9925623440336321</v>
+      </c>
+      <c r="E67">
+        <v>0.4740374133873213</v>
+      </c>
+      <c r="F67">
+        <v>0.1540795306511268</v>
+      </c>
+      <c r="G67">
+        <v>6.363013777567867</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68">
+        <v>0.516486220472441</v>
+      </c>
+      <c r="C68">
+        <v>37.11749507874016</v>
+      </c>
+      <c r="D68">
+        <v>0.9887120184742861</v>
+      </c>
+      <c r="E68">
+        <v>0.685436683218949</v>
+      </c>
+      <c r="F68">
+        <v>0.5170826598047273</v>
+      </c>
+      <c r="G68">
+        <v>4.208172838983741</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69">
+        <v>0.5167322834645669</v>
+      </c>
+      <c r="C69">
+        <v>24.94617372047245</v>
+      </c>
+      <c r="D69">
+        <v>0.9911472735014699</v>
+      </c>
+      <c r="E69">
+        <v>0.6989804638880376</v>
+      </c>
+      <c r="F69">
+        <v>0.5181717042801769</v>
+      </c>
+      <c r="G69">
+        <v>4.064991584713645</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70">
+        <v>0.1824557086614173</v>
+      </c>
+      <c r="C70">
+        <v>56.67144438976378</v>
+      </c>
+      <c r="D70">
+        <v>0.9865451605058411</v>
+      </c>
+      <c r="E70">
+        <v>0.4655252986753495</v>
+      </c>
+      <c r="F70">
+        <v>0.1866626472876423</v>
+      </c>
+      <c r="G70">
+        <v>6.179066355410706</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71">
+        <v>0.2377583661417323</v>
+      </c>
+      <c r="C71">
+        <v>90.86909448818901</v>
+      </c>
+      <c r="D71">
+        <v>0.9864793454384679</v>
+      </c>
+      <c r="E71">
+        <v>0.4843706361424149</v>
+      </c>
+      <c r="F71">
+        <v>0.2416664775790199</v>
+      </c>
+      <c r="G71">
+        <v>5.857891626130024</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72">
+        <v>0.5276820866141733</v>
+      </c>
+      <c r="C72">
+        <v>81.22607037401575</v>
+      </c>
+      <c r="D72">
+        <v>0.9861598361701028</v>
+      </c>
+      <c r="E72">
+        <v>0.6517008385385827</v>
+      </c>
+      <c r="F72">
+        <v>0.5278951847520919</v>
+      </c>
+      <c r="G72">
+        <v>4.300340309587637</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73">
+        <v>0.4962475393700788</v>
+      </c>
+      <c r="C73">
+        <v>117.1390871062992</v>
+      </c>
+      <c r="D73">
+        <v>0.9811696379231055</v>
+      </c>
+      <c r="E73">
+        <v>0.643448176027101</v>
+      </c>
+      <c r="F73">
+        <v>0.4965877363130052</v>
+      </c>
+      <c r="G73">
+        <v>4.513264348590186</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74">
+        <v>0.4034202755905512</v>
+      </c>
+      <c r="C74">
+        <v>78.37290846456693</v>
+      </c>
+      <c r="D74">
+        <v>0.9868030725842732</v>
+      </c>
+      <c r="E74">
+        <v>0.5832076131734917</v>
+      </c>
+      <c r="F74">
+        <v>0.404906800897682</v>
+      </c>
+      <c r="G74">
+        <v>4.936015766709968</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75">
+        <v>0.2214566929133858</v>
+      </c>
+      <c r="C75">
+        <v>122.4309793307087</v>
+      </c>
+      <c r="D75">
+        <v>0.9848624510481265</v>
+      </c>
+      <c r="E75">
+        <v>0.4727350319443908</v>
+      </c>
+      <c r="F75">
+        <v>0.2225276641620006</v>
+      </c>
+      <c r="G75">
+        <v>6.397298394661424</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76">
+        <v>0.3812746062992126</v>
+      </c>
+      <c r="C76">
+        <v>164.1455462598426</v>
+      </c>
+      <c r="D76">
+        <v>0.9768966420663665</v>
+      </c>
+      <c r="E76">
+        <v>0.5747101345335178</v>
+      </c>
+      <c r="F76">
+        <v>0.3827506901191809</v>
+      </c>
+      <c r="G76">
+        <v>5.165439636082211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77">
+        <v>0.1751353346456693</v>
+      </c>
+      <c r="C77">
+        <v>88.10802165354332</v>
+      </c>
+      <c r="D77">
+        <v>0.9873805182955112</v>
+      </c>
+      <c r="E77">
+        <v>0.4536463024639839</v>
+      </c>
+      <c r="F77">
+        <v>0.1788521684405415</v>
+      </c>
+      <c r="G77">
+        <v>6.50622820126161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78">
+        <v>0.2774360236220472</v>
+      </c>
+      <c r="C78">
+        <v>70.29656742125987</v>
+      </c>
+      <c r="D78">
+        <v>0.9855346117678129</v>
+      </c>
+      <c r="E78">
+        <v>0.562404123553485</v>
+      </c>
+      <c r="F78">
+        <v>0.2840755982419881</v>
+      </c>
+      <c r="G78">
+        <v>5.009756486703006</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79">
+        <v>0.3505167322834646</v>
+      </c>
+      <c r="C79">
+        <v>77.40532726377954</v>
+      </c>
+      <c r="D79">
+        <v>0.9904992815933789</v>
+      </c>
+      <c r="E79">
+        <v>0.5785748332153104</v>
+      </c>
+      <c r="F79">
+        <v>0.3527861270037942</v>
+      </c>
+      <c r="G79">
+        <v>4.982823169793149</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80">
+        <v>0.1986343503937008</v>
+      </c>
+      <c r="C80">
+        <v>48.67064468503936</v>
+      </c>
+      <c r="D80">
+        <v>0.9920425754336161</v>
+      </c>
+      <c r="E80">
+        <v>0.5270664335134658</v>
+      </c>
+      <c r="F80">
+        <v>0.2148581112674828</v>
+      </c>
+      <c r="G80">
+        <v>5.06610524120329</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81">
+        <v>0.2619955708661417</v>
+      </c>
+      <c r="C81">
+        <v>64.64646899606299</v>
+      </c>
+      <c r="D81">
+        <v>0.9854289366358769</v>
+      </c>
+      <c r="E81">
+        <v>0.5689460493876717</v>
+      </c>
+      <c r="F81">
+        <v>0.2704078069890141</v>
+      </c>
+      <c r="G81">
+        <v>4.99492214090626</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82">
+        <v>0.3289247047244094</v>
+      </c>
+      <c r="C82">
+        <v>58.97742372047246</v>
+      </c>
+      <c r="D82">
+        <v>0.9917731085784741</v>
+      </c>
+      <c r="E82">
+        <v>0.572533663381811</v>
+      </c>
+      <c r="F82">
+        <v>0.3300323063737267</v>
+      </c>
+      <c r="G82">
+        <v>5.508483260718185</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83">
+        <v>0.09264271653543307</v>
+      </c>
+      <c r="C83">
+        <v>45.88109005905512</v>
+      </c>
+      <c r="D83">
+        <v>0.9922745028470215</v>
+      </c>
+      <c r="E83">
+        <v>0.4270520178174455</v>
+      </c>
+      <c r="F83">
+        <v>0.1098828137910092</v>
+      </c>
+      <c r="G83">
+        <v>6.110809035840645</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84">
+        <v>0.1758120078740157</v>
+      </c>
+      <c r="C84">
+        <v>114.7052780511811</v>
+      </c>
+      <c r="D84">
+        <v>0.9872579315154875</v>
+      </c>
+      <c r="E84">
+        <v>0.5105320199442532</v>
+      </c>
+      <c r="F84">
+        <v>0.1888582606394031</v>
+      </c>
+      <c r="G84">
+        <v>5.706889783310993</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85">
+        <v>0.09467273622047244</v>
+      </c>
+      <c r="C85">
+        <v>128.4549089566929</v>
+      </c>
+      <c r="D85">
+        <v>0.9519631000816758</v>
+      </c>
+      <c r="E85">
+        <v>0.3676369725995458</v>
+      </c>
+      <c r="F85">
+        <v>0.1129529226534832</v>
+      </c>
+      <c r="G85">
+        <v>5.953527572963785</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86">
+        <v>0.2172736220472441</v>
+      </c>
+      <c r="C86">
+        <v>113.6240157480315</v>
+      </c>
+      <c r="D86">
+        <v>0.9720522088899151</v>
+      </c>
+      <c r="E86">
+        <v>0.4060015086331212</v>
+      </c>
+      <c r="F86">
+        <v>0.219033241440442</v>
+      </c>
+      <c r="G86">
+        <v>6.100058411754078</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87">
+        <v>0.0437376968503937</v>
+      </c>
+      <c r="C87">
+        <v>117.8653420275591</v>
+      </c>
+      <c r="D87">
+        <v>0.9606639595692356</v>
+      </c>
+      <c r="E87">
+        <v>0.3142085747740299</v>
+      </c>
+      <c r="F87">
+        <v>0.07270951938090586</v>
+      </c>
+      <c r="G87">
+        <v>6.349758003642575</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88">
+        <v>0.0250369094488189</v>
+      </c>
+      <c r="C88">
+        <v>137.5959030511812</v>
+      </c>
+      <c r="D88">
+        <v>0.9520709771117561</v>
+      </c>
+      <c r="E88">
+        <v>0.2853615482753897</v>
+      </c>
+      <c r="F88">
+        <v>0.05687236535953235</v>
+      </c>
+      <c r="G88">
+        <v>6.406850912727517</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>86</v>
+      </c>
+      <c r="B89">
+        <v>0.2172736220472441</v>
+      </c>
+      <c r="C89">
+        <v>75.19420521653547</v>
+      </c>
+      <c r="D89">
+        <v>0.9541178700774805</v>
+      </c>
+      <c r="E89">
+        <v>0.4322293173802143</v>
+      </c>
+      <c r="F89">
+        <v>0.2207671428242312</v>
+      </c>
+      <c r="G89">
+        <v>5.573251119373834</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90">
+        <v>0.2162893700787402</v>
+      </c>
+      <c r="C90">
+        <v>153.2226870078741</v>
+      </c>
+      <c r="D90">
+        <v>0.9464309843490402</v>
+      </c>
+      <c r="E90">
+        <v>0.3872841152248376</v>
+      </c>
+      <c r="F90">
+        <v>0.2184761605011355</v>
+      </c>
+      <c r="G90">
+        <v>5.875791589101128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>88</v>
+      </c>
+      <c r="B91">
+        <v>0.09171998031496063</v>
+      </c>
+      <c r="C91">
+        <v>128.626845472441</v>
+      </c>
+      <c r="D91">
+        <v>0.9518185545964962</v>
+      </c>
+      <c r="E91">
+        <v>0.3617793075287455</v>
+      </c>
+      <c r="F91">
+        <v>0.1099757667393365</v>
+      </c>
+      <c r="G91">
+        <v>5.988227238586611</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>89</v>
+      </c>
+      <c r="B92">
+        <v>0.1150959645669291</v>
+      </c>
+      <c r="C92">
+        <v>105.078125</v>
+      </c>
+      <c r="D92">
+        <v>0.9738771620669856</v>
+      </c>
+      <c r="E92">
+        <v>0.3623796292620767</v>
+      </c>
+      <c r="F92">
+        <v>0.1219485200692584</v>
+      </c>
+      <c r="G92">
+        <v>6.438941745989823</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93">
+        <v>0.01630167322834646</v>
+      </c>
+      <c r="C93">
+        <v>19.40760334645669</v>
+      </c>
+      <c r="D93">
+        <v>0.9891957766972894</v>
+      </c>
+      <c r="E93">
+        <v>0.4414439405280959</v>
+      </c>
+      <c r="F93">
+        <v>0.05339855719334888</v>
+      </c>
+      <c r="G93">
+        <v>6.434951791720176</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94">
+        <v>0.03647883858267716</v>
+      </c>
+      <c r="C94">
+        <v>11.94229822834646</v>
+      </c>
+      <c r="D94">
+        <v>0.9906262159481611</v>
+      </c>
+      <c r="E94">
+        <v>0.4795709121459754</v>
+      </c>
+      <c r="F94">
+        <v>0.06199272208074379</v>
+      </c>
+      <c r="G94">
+        <v>6.271109644888901</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>92</v>
+      </c>
+      <c r="B95">
+        <v>0.01181102362204724</v>
+      </c>
+      <c r="C95">
+        <v>16.10242372047244</v>
+      </c>
+      <c r="D95">
+        <v>0.9882303078058242</v>
+      </c>
+      <c r="E95">
+        <v>0.4205274394075956</v>
+      </c>
+      <c r="F95">
+        <v>0.043172552244329</v>
+      </c>
+      <c r="G95">
+        <v>6.53214533263564</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96">
+        <v>0.08089320866141732</v>
+      </c>
+      <c r="C96">
+        <v>10.77903543307087</v>
+      </c>
+      <c r="D96">
+        <v>0.9891042270550755</v>
+      </c>
+      <c r="E96">
+        <v>0.503107221211153</v>
+      </c>
+      <c r="F96">
+        <v>0.09725722445885102</v>
+      </c>
+      <c r="G96">
+        <v>5.883085170987108</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>94</v>
+      </c>
+      <c r="B97">
+        <v>0.02565206692913386</v>
+      </c>
+      <c r="C97">
+        <v>19.20453986220473</v>
+      </c>
+      <c r="D97">
+        <v>0.989012507242095</v>
+      </c>
+      <c r="E97">
+        <v>0.4785600959639348</v>
+      </c>
+      <c r="F97">
+        <v>0.071732980704368</v>
+      </c>
+      <c r="G97">
+        <v>6.042928226495041</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>95</v>
+      </c>
+      <c r="B98">
+        <v>0.09596456692913385</v>
+      </c>
+      <c r="C98">
+        <v>30.19309793307087</v>
+      </c>
+      <c r="D98">
+        <v>0.9905354164119233</v>
+      </c>
+      <c r="E98">
+        <v>0.4707301246346246</v>
+      </c>
+      <c r="F98">
+        <v>0.1085157759811747</v>
+      </c>
+      <c r="G98">
+        <v>6.304022883358697</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>96</v>
+      </c>
+      <c r="B99">
+        <v>0.05241141732283464</v>
+      </c>
+      <c r="C99">
+        <v>28.49821604330709</v>
+      </c>
+      <c r="D99">
+        <v>0.9886493061601825</v>
+      </c>
+      <c r="E99">
+        <v>0.4508096781916033</v>
+      </c>
+      <c r="F99">
+        <v>0.07124101304806568</v>
+      </c>
+      <c r="G99">
+        <v>6.458232650285479</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>97</v>
+      </c>
+      <c r="B100">
+        <v>0.1849163385826772</v>
+      </c>
+      <c r="C100">
+        <v>40.07837106299212</v>
+      </c>
+      <c r="D100">
+        <v>0.9922964977945284</v>
+      </c>
+      <c r="E100">
+        <v>0.5269111051673305</v>
+      </c>
+      <c r="F100">
+        <v>0.1893898503130028</v>
+      </c>
+      <c r="G100">
+        <v>6.194423784466733</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>98</v>
+      </c>
+      <c r="B101">
+        <v>0.1695374015748032</v>
+      </c>
+      <c r="C101">
+        <v>38.85611466535433</v>
+      </c>
+      <c r="D101">
+        <v>0.9930496417427437</v>
+      </c>
+      <c r="E101">
+        <v>0.5220405096079952</v>
+      </c>
+      <c r="F101">
+        <v>0.1745951530285865</v>
+      </c>
+      <c r="G101">
+        <v>6.328166977129984</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102">
+        <v>0.1728592519685039</v>
+      </c>
+      <c r="C102">
+        <v>31.36115895669291</v>
+      </c>
+      <c r="D102">
+        <v>0.9941631720668975</v>
+      </c>
+      <c r="E102">
+        <v>0.5233118214999717</v>
+      </c>
+      <c r="F102">
+        <v>0.1770379089498919</v>
+      </c>
+      <c r="G102">
+        <v>6.330547396952117</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>100</v>
+      </c>
+      <c r="B103">
+        <v>0.1447465551181102</v>
+      </c>
+      <c r="C103">
+        <v>33.71899606299212</v>
+      </c>
+      <c r="D103">
+        <v>0.9935903919232374</v>
+      </c>
+      <c r="E103">
+        <v>0.5232262124316436</v>
+      </c>
+      <c r="F103">
+        <v>0.1517422998238976</v>
+      </c>
+      <c r="G103">
+        <v>6.300368077670599</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>101</v>
+      </c>
+      <c r="B104">
+        <v>0.140501968503937</v>
+      </c>
+      <c r="C104">
+        <v>33.00473671259843</v>
+      </c>
+      <c r="D104">
+        <v>0.9939145959757952</v>
+      </c>
+      <c r="E104">
+        <v>0.5027131574010467</v>
+      </c>
+      <c r="F104">
+        <v>0.1453972171411173</v>
+      </c>
+      <c r="G104">
+        <v>6.468327378082209</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>102</v>
+      </c>
+      <c r="B105">
+        <v>0.1343503937007874</v>
+      </c>
+      <c r="C105">
+        <v>35.00006151574803</v>
+      </c>
+      <c r="D105">
+        <v>0.9933949228740045</v>
+      </c>
+      <c r="E105">
+        <v>0.5158363250272776</v>
+      </c>
+      <c r="F105">
+        <v>0.1422270701396765</v>
+      </c>
+      <c r="G105">
+        <v>6.33092862881798</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>103</v>
+      </c>
+      <c r="B106">
+        <v>0.1482529527559055</v>
+      </c>
+      <c r="C106">
+        <v>35.71093750000001</v>
+      </c>
+      <c r="D106">
+        <v>0.9934485394229218</v>
+      </c>
+      <c r="E106">
+        <v>0.5130799482481307</v>
+      </c>
+      <c r="F106">
+        <v>0.1532347405351952</v>
+      </c>
+      <c r="G106">
+        <v>6.466320688219332</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>104</v>
+      </c>
+      <c r="B107">
+        <v>0.3331692913385827</v>
+      </c>
+      <c r="C107">
+        <v>58.25098425196852</v>
+      </c>
+      <c r="D107">
+        <v>0.9905616910983169</v>
+      </c>
+      <c r="E107">
+        <v>0.5760613635773932</v>
+      </c>
+      <c r="F107">
+        <v>0.3378719182602347</v>
+      </c>
+      <c r="G107">
+        <v>5.045930707691567</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>105</v>
+      </c>
+      <c r="B108">
+        <v>0.7057701771653543</v>
+      </c>
+      <c r="C108">
+        <v>49.17082923228348</v>
+      </c>
+      <c r="D108">
+        <v>0.9883151285286056</v>
+      </c>
+      <c r="E108">
+        <v>0.7905187313222301</v>
+      </c>
+      <c r="F108">
+        <v>0.705884946203767</v>
+      </c>
+      <c r="G108">
+        <v>2.922772452537302</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>106</v>
+      </c>
+      <c r="B109">
+        <v>0.6914370078740157</v>
+      </c>
+      <c r="C109">
+        <v>46.37604576771653</v>
+      </c>
+      <c r="D109">
+        <v>0.9876494582218248</v>
+      </c>
+      <c r="E109">
+        <v>0.7978662942128634</v>
+      </c>
+      <c r="F109">
+        <v>0.6917065724479021</v>
+      </c>
+      <c r="G109">
+        <v>2.922009027618973</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>107</v>
+      </c>
+      <c r="B110">
+        <v>0.5462598425196851</v>
+      </c>
+      <c r="C110">
+        <v>47.8658341535433</v>
+      </c>
+      <c r="D110">
+        <v>0.9882310985664577</v>
+      </c>
+      <c r="E110">
+        <v>0.7083953090552367</v>
+      </c>
+      <c r="F110">
+        <v>0.547984574417278</v>
+      </c>
+      <c r="G110">
+        <v>3.777644060247888</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>108</v>
+      </c>
+      <c r="B111">
+        <v>0.2854945866141732</v>
+      </c>
+      <c r="C111">
+        <v>79.37776820866144</v>
+      </c>
+      <c r="D111">
+        <v>0.9897259854687547</v>
+      </c>
+      <c r="E111">
+        <v>0.5201307620263458</v>
+      </c>
+      <c r="F111">
+        <v>0.2865475583707951</v>
+      </c>
+      <c r="G111">
+        <v>5.900303867997049</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>109</v>
+      </c>
+      <c r="B112">
+        <v>0.5101500984251969</v>
+      </c>
+      <c r="C112">
+        <v>58.53580216535434</v>
+      </c>
+      <c r="D112">
+        <v>0.9892121676869288</v>
+      </c>
+      <c r="E112">
+        <v>0.6908250216532091</v>
+      </c>
+      <c r="F112">
+        <v>0.5116581726112561</v>
+      </c>
+      <c r="G112">
+        <v>4.005462056903926</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>110</v>
+      </c>
+      <c r="B113">
+        <v>0.2766363188976378</v>
+      </c>
+      <c r="C113">
+        <v>53.93903789370081</v>
+      </c>
+      <c r="D113">
+        <v>0.9912959814567263</v>
+      </c>
+      <c r="E113">
+        <v>0.562933976472909</v>
+      </c>
+      <c r="F113">
+        <v>0.2823782670601291</v>
+      </c>
+      <c r="G113">
+        <v>5.544353735637984</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>111</v>
+      </c>
+      <c r="B114">
+        <v>0.3748154527559055</v>
+      </c>
+      <c r="C114">
+        <v>80.33925935039372</v>
+      </c>
+      <c r="D114">
+        <v>0.9921321150297991</v>
+      </c>
+      <c r="E114">
+        <v>0.6494470822085422</v>
+      </c>
+      <c r="F114">
+        <v>0.3760298651619263</v>
+      </c>
+      <c r="G114">
+        <v>5.254906262346771</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>112</v>
+      </c>
+      <c r="B115">
+        <v>0.2818036417322834</v>
+      </c>
+      <c r="C115">
+        <v>93.8040723425197</v>
+      </c>
+      <c r="D115">
+        <v>0.9928024810586109</v>
+      </c>
+      <c r="E115">
+        <v>0.617912719727711</v>
+      </c>
+      <c r="F115">
+        <v>0.2854637873142925</v>
+      </c>
+      <c r="G115">
+        <v>5.554793759760757</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>113</v>
+      </c>
+      <c r="B116">
+        <v>0.3724163385826771</v>
+      </c>
+      <c r="C116">
+        <v>74.50449064960631</v>
+      </c>
+      <c r="D116">
+        <v>0.9940826289580734</v>
+      </c>
+      <c r="E116">
+        <v>0.6507023360673776</v>
+      </c>
+      <c r="F116">
+        <v>0.3742533606017229</v>
+      </c>
+      <c r="G116">
+        <v>5.131728122866018</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>114</v>
+      </c>
+      <c r="B117">
+        <v>0.3654035433070866</v>
+      </c>
+      <c r="C117">
+        <v>79.72803887795277</v>
+      </c>
+      <c r="D117">
+        <v>0.9934606440626371</v>
+      </c>
+      <c r="E117">
+        <v>0.6490766004615762</v>
+      </c>
+      <c r="F117">
+        <v>0.368574002990455</v>
+      </c>
+      <c r="G117">
+        <v>5.019884392394351</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>115</v>
+      </c>
+      <c r="B118">
+        <v>0.1310285433070866</v>
+      </c>
+      <c r="C118">
+        <v>98.73160679133861</v>
+      </c>
+      <c r="D118">
+        <v>0.9923736851779809</v>
+      </c>
+      <c r="E118">
+        <v>0.5351984825416796</v>
+      </c>
+      <c r="F118">
+        <v>0.1421521726268958</v>
+      </c>
+      <c r="G118">
+        <v>6.407743977052386</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>116</v>
+      </c>
+      <c r="B119">
+        <v>0.3056102362204725</v>
+      </c>
+      <c r="C119">
+        <v>94.99440206692913</v>
+      </c>
+      <c r="D119">
+        <v>0.992239690004918</v>
+      </c>
+      <c r="E119">
+        <v>0.6046004695749428</v>
+      </c>
+      <c r="F119">
+        <v>0.3088871469612983</v>
+      </c>
+      <c r="G119">
+        <v>5.424263138716673</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>117</v>
+      </c>
+      <c r="B120">
+        <v>0.3238804133858268</v>
+      </c>
+      <c r="C120">
+        <v>86.22939222440945</v>
+      </c>
+      <c r="D120">
+        <v>0.9918044492750038</v>
+      </c>
+      <c r="E120">
+        <v>0.6331986418114249</v>
+      </c>
+      <c r="F120">
+        <v>0.3272656209477308</v>
+      </c>
+      <c r="G120">
+        <v>5.418894203004438</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
+        <v>118</v>
+      </c>
+      <c r="B121">
+        <v>0.3209891732283465</v>
+      </c>
+      <c r="C121">
+        <v>50.63109005905513</v>
+      </c>
+      <c r="D121">
+        <v>0.990030947499471</v>
+      </c>
+      <c r="E121">
+        <v>0.515184355237565</v>
+      </c>
+      <c r="F121">
+        <v>0.3217767621445852</v>
+      </c>
+      <c r="G121">
+        <v>5.672727437165899</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>119</v>
+      </c>
+      <c r="B122">
+        <v>0.3123154527559055</v>
+      </c>
+      <c r="C122">
+        <v>53.74501722440947</v>
+      </c>
+      <c r="D122">
+        <v>0.9892011012468537</v>
+      </c>
+      <c r="E122">
+        <v>0.4910150056326895</v>
+      </c>
+      <c r="F122">
+        <v>0.3131272911962997</v>
+      </c>
+      <c r="G122">
+        <v>5.730892468754467</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>120</v>
+      </c>
+      <c r="B123">
+        <v>0.3061023622047244</v>
+      </c>
+      <c r="C123">
+        <v>46.24870816929135</v>
+      </c>
+      <c r="D123">
+        <v>0.9908235360558422</v>
+      </c>
+      <c r="E123">
+        <v>0.5093244407354646</v>
+      </c>
+      <c r="F123">
+        <v>0.3071295409580175</v>
+      </c>
+      <c r="G123">
+        <v>5.730324868341335</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>121</v>
+      </c>
+      <c r="B124">
+        <v>0.3151451771653543</v>
+      </c>
+      <c r="C124">
+        <v>43.5201156496063</v>
+      </c>
+      <c r="D124">
+        <v>0.9907280398074693</v>
+      </c>
+      <c r="E124">
+        <v>0.5179259963483038</v>
+      </c>
+      <c r="F124">
+        <v>0.3159776831961885</v>
+      </c>
+      <c r="G124">
+        <v>5.693846375234418</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>122</v>
+      </c>
+      <c r="B125">
+        <v>0.3106545275590551</v>
+      </c>
+      <c r="C125">
+        <v>47.65286663385827</v>
+      </c>
+      <c r="D125">
+        <v>0.9900798350604211</v>
+      </c>
+      <c r="E125">
+        <v>0.5036841868805969</v>
+      </c>
+      <c r="F125">
+        <v>0.3115051125739954</v>
+      </c>
+      <c r="G125">
+        <v>5.755356541698633</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>123</v>
+      </c>
+      <c r="B126">
+        <v>0.3047490157480315</v>
+      </c>
+      <c r="C126">
+        <v>49.14585383858268</v>
+      </c>
+      <c r="D126">
+        <v>0.9907032316399677</v>
+      </c>
+      <c r="E126">
+        <v>0.4948221439327709</v>
+      </c>
+      <c r="F126">
+        <v>0.3055439770227976</v>
+      </c>
+      <c r="G126">
+        <v>5.803395732145564</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
+        <v>124</v>
+      </c>
+      <c r="B127">
+        <v>0.3219119094488189</v>
+      </c>
+      <c r="C127">
+        <v>48.99280265748032</v>
+      </c>
+      <c r="D127">
+        <v>0.9903942445135678</v>
+      </c>
+      <c r="E127">
+        <v>0.5137427872741016</v>
+      </c>
+      <c r="F127">
+        <v>0.3227231379097911</v>
+      </c>
+      <c r="G127">
+        <v>5.665075688172474</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>125</v>
+      </c>
+      <c r="B128">
+        <v>0.3180364173228347</v>
+      </c>
+      <c r="C128">
+        <v>53.97520915354333</v>
+      </c>
+      <c r="D128">
+        <v>0.9887468980154154</v>
+      </c>
+      <c r="E128">
+        <v>0.4964045218042925</v>
+      </c>
+      <c r="F128">
+        <v>0.3187292200684769</v>
+      </c>
+      <c r="G128">
+        <v>5.715036851020526</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
+        <v>126</v>
+      </c>
+      <c r="B129">
+        <v>0.3073941929133858</v>
+      </c>
+      <c r="C129">
+        <v>90.50362942913387</v>
+      </c>
+      <c r="D129">
+        <v>0.9896308692744226</v>
+      </c>
+      <c r="E129">
+        <v>0.519492392226912</v>
+      </c>
+      <c r="F129">
+        <v>0.3079882116925939</v>
+      </c>
+      <c r="G129">
+        <v>6.007715917979596</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>127</v>
+      </c>
+      <c r="B130">
+        <v>0.2984128937007874</v>
+      </c>
+      <c r="C130">
+        <v>106.6876230314961</v>
+      </c>
+      <c r="D130">
+        <v>0.9876572008164236</v>
+      </c>
+      <c r="E130">
+        <v>0.5034424750409268</v>
+      </c>
+      <c r="F130">
+        <v>0.2990718024957257</v>
+      </c>
+      <c r="G130">
+        <v>6.096514482233553</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="s">
+        <v>128</v>
+      </c>
+      <c r="B131">
+        <v>0.2897391732283465</v>
+      </c>
+      <c r="C131">
+        <v>112.6623400590551</v>
+      </c>
+      <c r="D131">
+        <v>0.9868487945571277</v>
+      </c>
+      <c r="E131">
+        <v>0.4785048743700214</v>
+      </c>
+      <c r="F131">
+        <v>0.2904741216016581</v>
+      </c>
+      <c r="G131">
+        <v>6.153772796194362</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
+        <v>129</v>
+      </c>
+      <c r="B132">
+        <v>0.2999507874015748</v>
+      </c>
+      <c r="C132">
+        <v>102.3682332677166</v>
+      </c>
+      <c r="D132">
+        <v>0.9885718088282314</v>
+      </c>
+      <c r="E132">
+        <v>0.4906561824648709</v>
+      </c>
+      <c r="F132">
+        <v>0.3005380877594984</v>
+      </c>
+      <c r="G132">
+        <v>6.093061159764495</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" t="s">
+        <v>130</v>
+      </c>
+      <c r="B133">
+        <v>0.3075172244094488</v>
+      </c>
+      <c r="C133">
+        <v>113.6217396653544</v>
+      </c>
+      <c r="D133">
+        <v>0.9872809607575938</v>
+      </c>
+      <c r="E133">
+        <v>0.5043966515057665</v>
+      </c>
+      <c r="F133">
+        <v>0.3080260373322848</v>
+      </c>
+      <c r="G133">
+        <v>6.070127822027515</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="s">
+        <v>131</v>
+      </c>
+      <c r="B134">
+        <v>0.3054872047244094</v>
+      </c>
+      <c r="C134">
+        <v>108.1396407480315</v>
+      </c>
+      <c r="D134">
+        <v>0.987421643619229</v>
+      </c>
+      <c r="E134">
+        <v>0.5073014564259825</v>
+      </c>
+      <c r="F134">
+        <v>0.3061264619294173</v>
+      </c>
+      <c r="G134">
+        <v>6.082973280134043</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
+        <v>132</v>
+      </c>
+      <c r="B135">
+        <v>0.3209891732283465</v>
+      </c>
+      <c r="C135">
+        <v>92.33396899606302</v>
+      </c>
+      <c r="D135">
+        <v>0.9892733346728994</v>
+      </c>
+      <c r="E135">
+        <v>0.5266552829878164</v>
+      </c>
+      <c r="F135">
+        <v>0.3215489700071757</v>
+      </c>
+      <c r="G135">
+        <v>5.989352518754637</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>133</v>
+      </c>
+      <c r="B136">
+        <v>0.5791707677165354</v>
+      </c>
+      <c r="C136">
+        <v>74.04988927165354</v>
+      </c>
+      <c r="D136">
+        <v>0.9787216295473193</v>
+      </c>
+      <c r="E136">
+        <v>0.6877798567290361</v>
+      </c>
+      <c r="F136">
+        <v>0.5793411360538444</v>
+      </c>
+      <c r="G136">
+        <v>3.824670728067516</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>134</v>
+      </c>
+      <c r="B137">
+        <v>0.546382874015748</v>
+      </c>
+      <c r="C137">
+        <v>62.53721702755907</v>
+      </c>
+      <c r="D137">
+        <v>0.9804505859994876</v>
+      </c>
+      <c r="E137">
+        <v>0.6654248000746004</v>
+      </c>
+      <c r="F137">
+        <v>0.5465630403655755</v>
+      </c>
+      <c r="G137">
+        <v>4.026680477669644</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>135</v>
+      </c>
+      <c r="B138">
+        <v>0.5796013779527559</v>
+      </c>
+      <c r="C138">
+        <v>55.08292322834647</v>
+      </c>
+      <c r="D138">
+        <v>0.9770818324475861</v>
+      </c>
+      <c r="E138">
+        <v>0.6947749793588133</v>
+      </c>
+      <c r="F138">
+        <v>0.5798053259927887</v>
+      </c>
+      <c r="G138">
+        <v>3.676692610258208</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="s">
+        <v>136</v>
+      </c>
+      <c r="B139">
+        <v>0.609867125984252</v>
+      </c>
+      <c r="C139">
+        <v>52.21265994094492</v>
+      </c>
+      <c r="D139">
+        <v>0.9790408092078827</v>
+      </c>
+      <c r="E139">
+        <v>0.7224003623509577</v>
+      </c>
+      <c r="F139">
+        <v>0.6100687686227347</v>
+      </c>
+      <c r="G139">
+        <v>3.463089349696185</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" t="s">
+        <v>137</v>
+      </c>
+      <c r="B140">
+        <v>0.5626845472440944</v>
+      </c>
+      <c r="C140">
+        <v>68.77571358267718</v>
+      </c>
+      <c r="D140">
+        <v>0.9752686105792256</v>
+      </c>
+      <c r="E140">
+        <v>0.6809590668088916</v>
+      </c>
+      <c r="F140">
+        <v>0.5628536850866064</v>
+      </c>
+      <c r="G140">
+        <v>3.848840773796648</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" t="s">
+        <v>138</v>
+      </c>
+      <c r="B141">
+        <v>0.5556102362204725</v>
+      </c>
+      <c r="C141">
+        <v>80.62346210629921</v>
+      </c>
+      <c r="D141">
+        <v>0.9752604249610224</v>
+      </c>
+      <c r="E141">
+        <v>0.6720969942552084</v>
+      </c>
+      <c r="F141">
+        <v>0.555807249880888</v>
+      </c>
+      <c r="G141">
+        <v>3.952764099603756</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" t="s">
+        <v>139</v>
+      </c>
+      <c r="B142">
+        <v>0.601439468503937</v>
+      </c>
+      <c r="C142">
+        <v>56.09547244094489</v>
+      </c>
+      <c r="D142">
+        <v>0.9779280474231311</v>
+      </c>
+      <c r="E142">
+        <v>0.711303471734074</v>
+      </c>
+      <c r="F142">
+        <v>0.6016778160346841</v>
+      </c>
+      <c r="G142">
+        <v>3.53879298506935</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>140</v>
+      </c>
+      <c r="B143">
+        <v>0.359128937007874</v>
+      </c>
+      <c r="C143">
+        <v>84.32424950787404</v>
+      </c>
+      <c r="D143">
+        <v>0.9865413256616857</v>
+      </c>
+      <c r="E143">
+        <v>0.5694461866563061</v>
+      </c>
+      <c r="F143">
+        <v>0.3598875123566395</v>
+      </c>
+      <c r="G143">
+        <v>5.423323698879224</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>141</v>
+      </c>
+      <c r="B144">
+        <v>0.1495447834645669</v>
+      </c>
+      <c r="C144">
+        <v>99.29078494094492</v>
+      </c>
+      <c r="D144">
+        <v>0.9837970416978996</v>
+      </c>
+      <c r="E144">
+        <v>0.4582573829901798</v>
+      </c>
+      <c r="F144">
+        <v>0.1565159745471557</v>
+      </c>
+      <c r="G144">
+        <v>6.286984472708588</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
+        <v>142</v>
+      </c>
+      <c r="B145">
+        <v>0.1576648622047244</v>
+      </c>
+      <c r="C145">
+        <v>98.26857775590553</v>
+      </c>
+      <c r="D145">
+        <v>0.9835374912243304</v>
+      </c>
+      <c r="E145">
+        <v>0.4632414178024854</v>
+      </c>
+      <c r="F145">
+        <v>0.1672621390301862</v>
+      </c>
+      <c r="G145">
+        <v>6.116216051531231</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>143</v>
+      </c>
+      <c r="B146">
+        <v>0.2724532480314961</v>
+      </c>
+      <c r="C146">
+        <v>77.77700541338585</v>
+      </c>
+      <c r="D146">
+        <v>0.9866985017088389</v>
+      </c>
+      <c r="E146">
+        <v>0.5348448912436962</v>
+      </c>
+      <c r="F146">
+        <v>0.274114093848723</v>
+      </c>
+      <c r="G146">
+        <v>5.863234219665802</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>144</v>
+      </c>
+      <c r="B147">
+        <v>0.359005905511811</v>
+      </c>
+      <c r="C147">
+        <v>65.44641978346458</v>
+      </c>
+      <c r="D147">
+        <v>0.988890748622307</v>
+      </c>
+      <c r="E147">
+        <v>0.5842332801245723</v>
+      </c>
+      <c r="F147">
+        <v>0.3598515074804081</v>
+      </c>
+      <c r="G147">
+        <v>5.410865366259008</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>145</v>
+      </c>
+      <c r="B148">
+        <v>0.2766978346456693</v>
+      </c>
+      <c r="C148">
+        <v>98.44395915354335</v>
+      </c>
+      <c r="D148">
+        <v>0.9841388429749564</v>
+      </c>
+      <c r="E148">
+        <v>0.5355597021498139</v>
+      </c>
+      <c r="F148">
+        <v>0.2790250819320723</v>
+      </c>
+      <c r="G148">
+        <v>5.744957882715942</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>146</v>
+      </c>
+      <c r="B149">
+        <v>0.3519931102362205</v>
+      </c>
+      <c r="C149">
+        <v>83.73505167322838</v>
+      </c>
+      <c r="D149">
+        <v>0.986050983088965</v>
+      </c>
+      <c r="E149">
+        <v>0.5579945857844137</v>
+      </c>
+      <c r="F149">
+        <v>0.3528922907255632</v>
+      </c>
+      <c r="G149">
+        <v>5.450011286790507</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>147</v>
+      </c>
+      <c r="B150">
+        <v>0.397822342519685</v>
+      </c>
+      <c r="C150">
+        <v>92.20490895669295</v>
+      </c>
+      <c r="D150">
+        <v>0.9563712736542701</v>
+      </c>
+      <c r="E150">
+        <v>0.6233409271366622</v>
+      </c>
+      <c r="F150">
+        <v>0.3988052518238365</v>
+      </c>
+      <c r="G150">
+        <v>4.812702818306265</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="s">
+        <v>148</v>
+      </c>
+      <c r="B151">
+        <v>0.6577878937007874</v>
+      </c>
+      <c r="C151">
+        <v>51.78807824803152</v>
+      </c>
+      <c r="D151">
+        <v>0.9570604857192553</v>
+      </c>
+      <c r="E151">
+        <v>0.7597720241381114</v>
+      </c>
+      <c r="F151">
+        <v>0.657953806516497</v>
+      </c>
+      <c r="G151">
+        <v>3.016677413407082</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>149</v>
+      </c>
+      <c r="B152">
+        <v>0.4056963582677166</v>
+      </c>
+      <c r="C152">
+        <v>60.82843257874016</v>
+      </c>
+      <c r="D152">
+        <v>0.9756053910511436</v>
+      </c>
+      <c r="E152">
+        <v>0.5919948802401367</v>
+      </c>
+      <c r="F152">
+        <v>0.4064128061946712</v>
+      </c>
+      <c r="G152">
+        <v>4.848433239363597</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>150</v>
+      </c>
+      <c r="B153">
+        <v>0.4458661417322834</v>
+      </c>
+      <c r="C153">
+        <v>41.57265009842521</v>
+      </c>
+      <c r="D153">
+        <v>0.9703125572387151</v>
+      </c>
+      <c r="E153">
+        <v>0.6227523509280706</v>
+      </c>
+      <c r="F153">
+        <v>0.4466218276138084</v>
+      </c>
+      <c r="G153">
+        <v>4.3555552575683</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
+        <v>151</v>
+      </c>
+      <c r="B154">
+        <v>0.7130905511811023</v>
+      </c>
+      <c r="C154">
+        <v>25.06145423228347</v>
+      </c>
+      <c r="D154">
+        <v>0.9645074938371757</v>
+      </c>
+      <c r="E154">
+        <v>0.8036568241749277</v>
+      </c>
+      <c r="F154">
+        <v>0.7132242247585079</v>
+      </c>
+      <c r="G154">
+        <v>2.510959708712182</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
+        <v>152</v>
+      </c>
+      <c r="B155">
+        <v>0.5401697834645669</v>
+      </c>
+      <c r="C155">
+        <v>128.2490772637795</v>
+      </c>
+      <c r="D155">
+        <v>0.9439580816249968</v>
+      </c>
+      <c r="E155">
+        <v>0.6772512989073343</v>
+      </c>
+      <c r="F155">
+        <v>0.5404459505219955</v>
+      </c>
+      <c r="G155">
+        <v>3.972291860547937</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>153</v>
+      </c>
+      <c r="B156">
+        <v>0.585445374015748</v>
+      </c>
+      <c r="C156">
+        <v>38.74796998031497</v>
+      </c>
+      <c r="D156">
+        <v>0.9613532602225077</v>
+      </c>
+      <c r="E156">
+        <v>0.7185420982594338</v>
+      </c>
+      <c r="F156">
+        <v>0.5857388495743669</v>
+      </c>
+      <c r="G156">
+        <v>3.448011829224084</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>154</v>
+      </c>
+      <c r="B157">
+        <v>0.6377337598425197</v>
+      </c>
+      <c r="C157">
+        <v>43.28500246062993</v>
+      </c>
+      <c r="D157">
+        <v>0.9887686138662581</v>
+      </c>
+      <c r="E157">
+        <v>0.7538487718574526</v>
+      </c>
+      <c r="F157">
+        <v>0.6379402791605523</v>
+      </c>
+      <c r="G157">
+        <v>3.401815370723802</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>155</v>
+      </c>
+      <c r="B158">
+        <v>0.2052165354330709</v>
+      </c>
+      <c r="C158">
+        <v>34.41560039370079</v>
+      </c>
+      <c r="D158">
+        <v>0.9941707027318638</v>
+      </c>
+      <c r="E158">
+        <v>0.5191509607311841</v>
+      </c>
+      <c r="F158">
+        <v>0.2082112474312434</v>
+      </c>
+      <c r="G158">
+        <v>6.288567859436316</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>156</v>
+      </c>
+      <c r="B159">
+        <v>0.5986097440944882</v>
+      </c>
+      <c r="C159">
+        <v>40.63010580708662</v>
+      </c>
+      <c r="D159">
+        <v>0.9899839510938405</v>
+      </c>
+      <c r="E159">
+        <v>0.7267742423835932</v>
+      </c>
+      <c r="F159">
+        <v>0.5991034144447951</v>
+      </c>
+      <c r="G159">
+        <v>3.622959151204688</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>157</v>
+      </c>
+      <c r="B160">
+        <v>0.6141732283464567</v>
+      </c>
+      <c r="C160">
+        <v>43.06526820866144</v>
+      </c>
+      <c r="D160">
+        <v>0.9896682049141429</v>
+      </c>
+      <c r="E160">
+        <v>0.7397507521280959</v>
+      </c>
+      <c r="F160">
+        <v>0.6144565581090147</v>
+      </c>
+      <c r="G160">
+        <v>3.536240580915397</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>158</v>
+      </c>
+      <c r="B161">
+        <v>0.2930610236220472</v>
+      </c>
+      <c r="C161">
+        <v>39.22422490157481</v>
+      </c>
+      <c r="D161">
+        <v>0.9950231946455719</v>
+      </c>
+      <c r="E161">
+        <v>0.5737092672804792</v>
+      </c>
+      <c r="F161">
+        <v>0.2955212533833513</v>
+      </c>
+      <c r="G161">
+        <v>5.712890286740592</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>159</v>
+      </c>
+      <c r="B162">
+        <v>0.3821358267716535</v>
+      </c>
+      <c r="C162">
+        <v>48.1998031496063</v>
+      </c>
+      <c r="D162">
+        <v>0.9928173497602962</v>
+      </c>
+      <c r="E162">
+        <v>0.6026347424385197</v>
+      </c>
+      <c r="F162">
+        <v>0.384493459123711</v>
+      </c>
+      <c r="G162">
+        <v>4.93984368388308</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
+        <v>160</v>
+      </c>
+      <c r="B163">
+        <v>0.6290600393700787</v>
+      </c>
+      <c r="C163">
+        <v>49.33175442913387</v>
+      </c>
+      <c r="D163">
+        <v>0.9879119479306524</v>
+      </c>
+      <c r="E163">
+        <v>0.739547463870082</v>
+      </c>
+      <c r="F163">
+        <v>0.6292794600072653</v>
+      </c>
+      <c r="G163">
+        <v>3.476985209396803</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>161</v>
+      </c>
+      <c r="B164">
+        <v>0.5350639763779528</v>
+      </c>
+      <c r="C164">
+        <v>28.9900344488189</v>
+      </c>
+      <c r="D164">
+        <v>0.9929063665673007</v>
+      </c>
+      <c r="E164">
+        <v>0.6900332408297825</v>
+      </c>
+      <c r="F164">
+        <v>0.5356914079037092</v>
+      </c>
+      <c r="G164">
+        <v>4.141018348517814</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>162</v>
+      </c>
+      <c r="B165">
+        <v>0.5247908464566929</v>
+      </c>
+      <c r="C165">
+        <v>68.19149852362204</v>
+      </c>
+      <c r="D165">
+        <v>0.989557615070914</v>
+      </c>
+      <c r="E165">
+        <v>0.6352560563515489</v>
+      </c>
+      <c r="F165">
+        <v>0.5250334534560523</v>
+      </c>
+      <c r="G165">
+        <v>4.354071077393924</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>163</v>
+      </c>
+      <c r="B166">
+        <v>0.5297736220472441</v>
+      </c>
+      <c r="C166">
+        <v>68.3911786417323</v>
+      </c>
+      <c r="D166">
+        <v>0.9885476197002796</v>
+      </c>
+      <c r="E166">
+        <v>0.6345384483053355</v>
+      </c>
+      <c r="F166">
+        <v>0.5299458499323311</v>
+      </c>
+      <c r="G166">
+        <v>4.324871077296205</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>164</v>
+      </c>
+      <c r="B167">
+        <v>0.5211614173228346</v>
+      </c>
+      <c r="C167">
+        <v>62.16701525590553</v>
+      </c>
+      <c r="D167">
+        <v>0.9886118315526254</v>
+      </c>
+      <c r="E167">
+        <v>0.629301589706137</v>
+      </c>
+      <c r="F167">
+        <v>0.5213593490605319</v>
+      </c>
+      <c r="G167">
+        <v>4.425653932336956</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>165</v>
+      </c>
+      <c r="B168">
+        <v>0.515255905511811</v>
+      </c>
+      <c r="C168">
+        <v>81.05628690944883</v>
+      </c>
+      <c r="D168">
+        <v>0.9849877438737227</v>
+      </c>
+      <c r="E168">
+        <v>0.6249165476839661</v>
+      </c>
+      <c r="F168">
+        <v>0.515448010936867</v>
+      </c>
+      <c r="G168">
+        <v>4.460335009102246</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
+        <v>166</v>
+      </c>
+      <c r="B169">
+        <v>0.523683562992126</v>
+      </c>
+      <c r="C169">
+        <v>78.91160187007877</v>
+      </c>
+      <c r="D169">
+        <v>0.9854034723361803</v>
+      </c>
+      <c r="E169">
+        <v>0.6343673250045624</v>
+      </c>
+      <c r="F169">
+        <v>0.5238517540587992</v>
+      </c>
+      <c r="G169">
+        <v>4.40099644330305</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" t="s">
+        <v>167</v>
+      </c>
+      <c r="B170">
+        <v>0.5126722440944882</v>
+      </c>
+      <c r="C170">
+        <v>85.64302411417324</v>
+      </c>
+      <c r="D170">
+        <v>0.9831070955933496</v>
+      </c>
+      <c r="E170">
+        <v>0.6347931336869241</v>
+      </c>
+      <c r="F170">
+        <v>0.512903794830896</v>
+      </c>
+      <c r="G170">
+        <v>4.431003756426501</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>168</v>
+      </c>
+      <c r="B171">
+        <v>0.5206077755905512</v>
+      </c>
+      <c r="C171">
+        <v>85.10193159448822</v>
+      </c>
+      <c r="D171">
+        <v>0.986121951463012</v>
+      </c>
+      <c r="E171">
+        <v>0.6451290327079329</v>
+      </c>
+      <c r="F171">
+        <v>0.5208448839575214</v>
+      </c>
+      <c r="G171">
+        <v>4.381081711331223</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
+        <v>169</v>
+      </c>
+      <c r="B172">
+        <v>0.445435531496063</v>
+      </c>
+      <c r="C172">
+        <v>70.53106545275593</v>
+      </c>
+      <c r="D172">
+        <v>0.9676528007208175</v>
+      </c>
+      <c r="E172">
+        <v>0.5958424339486642</v>
+      </c>
+      <c r="F172">
+        <v>0.4457848729392577</v>
+      </c>
+      <c r="G172">
+        <v>4.631014740548808</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
+        <v>170</v>
+      </c>
+      <c r="B173">
+        <v>0.4524483267716535</v>
+      </c>
+      <c r="C173">
+        <v>73.28549458661419</v>
+      </c>
+      <c r="D173">
+        <v>0.9628182395044683</v>
+      </c>
+      <c r="E173">
+        <v>0.5777295412282398</v>
+      </c>
+      <c r="F173">
+        <v>0.4527011335414771</v>
+      </c>
+      <c r="G173">
+        <v>4.587911695395483</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
+        <v>171</v>
+      </c>
+      <c r="B174">
+        <v>0.4517716535433071</v>
+      </c>
+      <c r="C174">
+        <v>54.64068651574805</v>
+      </c>
+      <c r="D174">
+        <v>0.9668708589694266</v>
+      </c>
+      <c r="E174">
+        <v>0.5939961147332529</v>
+      </c>
+      <c r="F174">
+        <v>0.452127890220386</v>
+      </c>
+      <c r="G174">
+        <v>4.513219860217961</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>172</v>
+      </c>
+      <c r="B175">
+        <v>0.4438976377952756</v>
+      </c>
+      <c r="C175">
+        <v>62.65175935039372</v>
+      </c>
+      <c r="D175">
+        <v>0.9617574066670768</v>
+      </c>
+      <c r="E175">
+        <v>0.6049816468091803</v>
+      </c>
+      <c r="F175">
+        <v>0.4443669907030523</v>
+      </c>
+      <c r="G175">
+        <v>4.490616034373208</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
+        <v>173</v>
+      </c>
+      <c r="B176">
+        <v>0.4431594488188976</v>
+      </c>
+      <c r="C176">
+        <v>52.25276820866144</v>
+      </c>
+      <c r="D176">
+        <v>0.9679217156600702</v>
+      </c>
+      <c r="E176">
+        <v>0.6079958513151154</v>
+      </c>
+      <c r="F176">
+        <v>0.4436411791852495</v>
+      </c>
+      <c r="G176">
+        <v>4.565004085499676</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" t="s">
+        <v>174</v>
+      </c>
+      <c r="B177">
+        <v>0.4433439960629921</v>
+      </c>
+      <c r="C177">
+        <v>64.89486958661419</v>
+      </c>
+      <c r="D177">
+        <v>0.9698364498882356</v>
+      </c>
+      <c r="E177">
+        <v>0.6073781396107024</v>
+      </c>
+      <c r="F177">
+        <v>0.4437122441011862</v>
+      </c>
+      <c r="G177">
+        <v>4.665569905108749</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" t="s">
+        <v>175</v>
+      </c>
+      <c r="B178">
+        <v>0.4516486220472441</v>
+      </c>
+      <c r="C178">
+        <v>64.09135088582678</v>
+      </c>
+      <c r="D178">
+        <v>0.9659474239169866</v>
+      </c>
+      <c r="E178">
+        <v>0.6167623798300697</v>
+      </c>
+      <c r="F178">
+        <v>0.4520281936811118</v>
+      </c>
+      <c r="G178">
+        <v>4.567989881098786</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" t="s">
+        <v>176</v>
+      </c>
+      <c r="B179">
+        <v>0.4876353346456693</v>
+      </c>
+      <c r="C179">
+        <v>6.587721456692914</v>
+      </c>
+      <c r="D179">
+        <v>0.9941017601877272</v>
+      </c>
+      <c r="E179">
+        <v>0.7312104854098639</v>
+      </c>
+      <c r="F179">
+        <v>0.4884084005428095</v>
+      </c>
+      <c r="G179">
+        <v>4.158147220705825</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" t="s">
+        <v>177</v>
+      </c>
+      <c r="B180">
+        <v>0.4787155511811024</v>
+      </c>
+      <c r="C180">
+        <v>7.472687007874015</v>
+      </c>
+      <c r="D180">
+        <v>0.9933408148735393</v>
+      </c>
+      <c r="E180">
+        <v>0.723016673613859</v>
+      </c>
+      <c r="F180">
+        <v>0.4795652096940328</v>
+      </c>
+      <c r="G180">
+        <v>4.200444865783945</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" t="s">
+        <v>178</v>
+      </c>
+      <c r="B181">
+        <v>0.4969857283464567</v>
+      </c>
+      <c r="C181">
+        <v>6.999446358267716</v>
+      </c>
+      <c r="D181">
+        <v>0.9936148699692668</v>
+      </c>
+      <c r="E181">
+        <v>0.731466775141304</v>
+      </c>
+      <c r="F181">
+        <v>0.4976652682460286</v>
+      </c>
+      <c r="G181">
+        <v>4.083809444804731</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" t="s">
+        <v>179</v>
+      </c>
+      <c r="B182">
+        <v>0.4820989173228347</v>
+      </c>
+      <c r="C182">
+        <v>8.411724901574805</v>
+      </c>
+      <c r="D182">
+        <v>0.9924516830640394</v>
+      </c>
+      <c r="E182">
+        <v>0.7207852320962859</v>
+      </c>
+      <c r="F182">
+        <v>0.4829187748910554</v>
+      </c>
+      <c r="G182">
+        <v>4.166518110689657</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" t="s">
+        <v>180</v>
+      </c>
+      <c r="B183">
+        <v>0.4737942913385827</v>
+      </c>
+      <c r="C183">
+        <v>7.356176181102362</v>
+      </c>
+      <c r="D183">
+        <v>0.9932314417074631</v>
+      </c>
+      <c r="E183">
+        <v>0.7149728055503367</v>
+      </c>
+      <c r="F183">
+        <v>0.4745946777989195</v>
+      </c>
+      <c r="G183">
+        <v>4.203585520220658</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>181</v>
+      </c>
+      <c r="B184">
+        <v>0.4850516732283465</v>
+      </c>
+      <c r="C184">
+        <v>7.497785433070868</v>
+      </c>
+      <c r="D184">
+        <v>0.9931642875843315</v>
+      </c>
+      <c r="E184">
+        <v>0.7237221961661601</v>
+      </c>
+      <c r="F184">
+        <v>0.48587790190334</v>
+      </c>
+      <c r="G184">
+        <v>4.189723191132616</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" t="s">
+        <v>182</v>
+      </c>
+      <c r="B185">
+        <v>0.4958169291338583</v>
+      </c>
+      <c r="C185">
+        <v>6.570312500000001</v>
+      </c>
+      <c r="D185">
+        <v>0.9940207046840766</v>
+      </c>
+      <c r="E185">
+        <v>0.732543064721101</v>
+      </c>
+      <c r="F185">
+        <v>0.4966940673319808</v>
+      </c>
+      <c r="G185">
+        <v>4.07409333299044</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" t="s">
+        <v>183</v>
+      </c>
+      <c r="B186">
+        <v>0.06957431102362205</v>
+      </c>
+      <c r="C186">
+        <v>19.60359251968504</v>
+      </c>
+      <c r="D186">
+        <v>0.995126611014018</v>
+      </c>
+      <c r="E186">
+        <v>0.5397869926868465</v>
+      </c>
+      <c r="F186">
+        <v>0.0865715211285244</v>
+      </c>
+      <c r="G186">
+        <v>6.291669246979814</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" t="s">
+        <v>184</v>
+      </c>
+      <c r="B187">
+        <v>0.07018946850393701</v>
+      </c>
+      <c r="C187">
+        <v>18.54995078740158</v>
+      </c>
+      <c r="D187">
+        <v>0.9951734610412991</v>
+      </c>
+      <c r="E187">
+        <v>0.5303310920449584</v>
+      </c>
+      <c r="F187">
+        <v>0.08686027978685532</v>
+      </c>
+      <c r="G187">
+        <v>6.236352806365749</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
+        <v>185</v>
+      </c>
+      <c r="B188">
+        <v>0.06059301181102363</v>
+      </c>
+      <c r="C188">
+        <v>18.43639271653544</v>
+      </c>
+      <c r="D188">
+        <v>0.9954507020169876</v>
+      </c>
+      <c r="E188">
+        <v>0.5303408990501615</v>
+      </c>
+      <c r="F188">
+        <v>0.08147690579153691</v>
+      </c>
+      <c r="G188">
+        <v>6.232258824387225</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" t="s">
+        <v>186</v>
+      </c>
+      <c r="B189">
+        <v>0.06046998031496063</v>
+      </c>
+      <c r="C189">
+        <v>19.56840551181103</v>
+      </c>
+      <c r="D189">
+        <v>0.9952970622725663</v>
+      </c>
+      <c r="E189">
+        <v>0.5441448983928739</v>
+      </c>
+      <c r="F189">
+        <v>0.08195259922874726</v>
+      </c>
+      <c r="G189">
+        <v>6.23911076662741</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" t="s">
+        <v>187</v>
+      </c>
+      <c r="B190">
+        <v>0.05444143700787402</v>
+      </c>
+      <c r="C190">
+        <v>19.76051919291339</v>
+      </c>
+      <c r="D190">
+        <v>0.9951183429192895</v>
+      </c>
+      <c r="E190">
+        <v>0.5300587036727056</v>
+      </c>
+      <c r="F190">
+        <v>0.0756433367715251</v>
+      </c>
+      <c r="G190">
+        <v>6.300291847299451</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" t="s">
+        <v>188</v>
+      </c>
+      <c r="B191">
+        <v>0.04970472440944882</v>
+      </c>
+      <c r="C191">
+        <v>20.31379183070866</v>
+      </c>
+      <c r="D191">
+        <v>0.99519559098141</v>
+      </c>
+      <c r="E191">
+        <v>0.5327448007228037</v>
+      </c>
+      <c r="F191">
+        <v>0.07255119441163423</v>
+      </c>
+      <c r="G191">
+        <v>6.358465723988649</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" t="s">
+        <v>189</v>
+      </c>
+      <c r="B192">
+        <v>0.07252706692913385</v>
+      </c>
+      <c r="C192">
+        <v>19.62075541338583</v>
+      </c>
+      <c r="D192">
+        <v>0.9950999129980725</v>
+      </c>
+      <c r="E192">
+        <v>0.5362863106314617</v>
+      </c>
+      <c r="F192">
+        <v>0.08901059843831795</v>
+      </c>
+      <c r="G192">
+        <v>6.291959449717496</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" t="s">
+        <v>190</v>
+      </c>
+      <c r="B193">
+        <v>0.5313115157480315</v>
+      </c>
+      <c r="C193">
+        <v>144.1544045275591</v>
+      </c>
+      <c r="D193">
+        <v>0.9784513260549123</v>
+      </c>
+      <c r="E193">
+        <v>0.7184028274804196</v>
+      </c>
+      <c r="F193">
+        <v>0.5317824132165867</v>
+      </c>
+      <c r="G193">
+        <v>4.294852327526693</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" t="s">
+        <v>191</v>
+      </c>
+      <c r="B194">
+        <v>0.2692544291338583</v>
+      </c>
+      <c r="C194">
+        <v>172.0946112204725</v>
+      </c>
+      <c r="D194">
+        <v>0.9788003862762678</v>
+      </c>
+      <c r="E194">
+        <v>0.5368517935854352</v>
+      </c>
+      <c r="F194">
+        <v>0.2709749045003207</v>
+      </c>
+      <c r="G194">
+        <v>6.067267350822085</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" t="s">
+        <v>192</v>
+      </c>
+      <c r="B195">
+        <v>0.4953863188976378</v>
+      </c>
+      <c r="C195">
+        <v>128.3771530511812</v>
+      </c>
+      <c r="D195">
+        <v>0.9790312061128169</v>
+      </c>
+      <c r="E195">
+        <v>0.6526485335483531</v>
+      </c>
+      <c r="F195">
+        <v>0.4959066511983588</v>
+      </c>
+      <c r="G195">
+        <v>4.517785495380666</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" t="s">
+        <v>193</v>
+      </c>
+      <c r="B196">
+        <v>0.4969857283464567</v>
+      </c>
+      <c r="C196">
+        <v>105.5305733267717</v>
+      </c>
+      <c r="D196">
+        <v>0.9811362015977959</v>
+      </c>
+      <c r="E196">
+        <v>0.6654184284689972</v>
+      </c>
+      <c r="F196">
+        <v>0.4976708855810858</v>
+      </c>
+      <c r="G196">
+        <v>4.394058417066327</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" t="s">
+        <v>194</v>
+      </c>
+      <c r="B197">
+        <v>0.3217888779527559</v>
+      </c>
+      <c r="C197">
+        <v>171.9683809055119</v>
+      </c>
+      <c r="D197">
+        <v>0.9821356458344923</v>
+      </c>
+      <c r="E197">
+        <v>0.5674606047696154</v>
+      </c>
+      <c r="F197">
+        <v>0.323363315045655</v>
+      </c>
+      <c r="G197">
+        <v>5.708446222217555</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" t="s">
+        <v>195</v>
+      </c>
+      <c r="B198">
+        <v>0.3801058070866142</v>
+      </c>
+      <c r="C198">
+        <v>187.1267224409449</v>
+      </c>
+      <c r="D198">
+        <v>0.9745280478432871</v>
+      </c>
+      <c r="E198">
+        <v>0.5884159762702736</v>
+      </c>
+      <c r="F198">
+        <v>0.3815513069108504</v>
+      </c>
+      <c r="G198">
+        <v>5.173273169132615</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" t="s">
+        <v>196</v>
+      </c>
+      <c r="B199">
+        <v>0.5097810039370079</v>
+      </c>
+      <c r="C199">
+        <v>128.8906865157481</v>
+      </c>
+      <c r="D199">
+        <v>0.9796336311339457</v>
+      </c>
+      <c r="E199">
+        <v>0.682258758419096</v>
+      </c>
+      <c r="F199">
+        <v>0.5102707530866409</v>
+      </c>
+      <c r="G199">
+        <v>4.390861575196102</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" t="s">
+        <v>197</v>
+      </c>
+      <c r="B200">
+        <v>0.4486958661417323</v>
+      </c>
+      <c r="C200">
+        <v>128.0303887795276</v>
+      </c>
+      <c r="D200">
+        <v>0.9816528540407337</v>
+      </c>
+      <c r="E200">
+        <v>0.6481179788190123</v>
+      </c>
+      <c r="F200">
+        <v>0.4497973256795678</v>
+      </c>
+      <c r="G200">
+        <v>4.657478428674295</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" t="s">
+        <v>198</v>
+      </c>
+      <c r="B201">
+        <v>0.1897145669291339</v>
+      </c>
+      <c r="C201">
+        <v>99.17950295275593</v>
+      </c>
+      <c r="D201">
+        <v>0.9868903129241828</v>
+      </c>
+      <c r="E201">
+        <v>0.4957268621141913</v>
+      </c>
+      <c r="F201">
+        <v>0.1926886812855159</v>
+      </c>
+      <c r="G201">
+        <v>6.316422948764618</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" t="s">
+        <v>199</v>
+      </c>
+      <c r="B202">
+        <v>0.1059301181102362</v>
+      </c>
+      <c r="C202">
+        <v>89.31114665354333</v>
+      </c>
+      <c r="D202">
+        <v>0.9883434700249258</v>
+      </c>
+      <c r="E202">
+        <v>0.4526751672948749</v>
+      </c>
+      <c r="F202">
+        <v>0.1126232895474087</v>
+      </c>
+      <c r="G202">
+        <v>6.727967545307224</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" t="s">
+        <v>200</v>
+      </c>
+      <c r="B203">
+        <v>0.2634104330708661</v>
+      </c>
+      <c r="C203">
+        <v>58.96671998031497</v>
+      </c>
+      <c r="D203">
+        <v>0.992070083953731</v>
+      </c>
+      <c r="E203">
+        <v>0.5515221550483737</v>
+      </c>
+      <c r="F203">
+        <v>0.2646232986901793</v>
+      </c>
+      <c r="G203">
+        <v>6.102194878328734</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" t="s">
+        <v>201</v>
+      </c>
+      <c r="B204">
+        <v>0.2663016732283465</v>
+      </c>
+      <c r="C204">
+        <v>70.07025098425198</v>
+      </c>
+      <c r="D204">
+        <v>0.9914266574918089</v>
+      </c>
+      <c r="E204">
+        <v>0.5456174269006664</v>
+      </c>
+      <c r="F204">
+        <v>0.2674872621195896</v>
+      </c>
+      <c r="G204">
+        <v>6.104415118462215</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" t="s">
+        <v>202</v>
+      </c>
+      <c r="B205">
+        <v>0.1047613188976378</v>
+      </c>
+      <c r="C205">
+        <v>100.003937007874</v>
+      </c>
+      <c r="D205">
+        <v>0.9872386019883207</v>
+      </c>
+      <c r="E205">
+        <v>0.4329326149617163</v>
+      </c>
+      <c r="F205">
+        <v>0.1123710713501938</v>
+      </c>
+      <c r="G205">
+        <v>6.762218602594506</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" t="s">
+        <v>203</v>
+      </c>
+      <c r="B206">
+        <v>0.234867125984252</v>
+      </c>
+      <c r="C206">
+        <v>92.22834645669289</v>
+      </c>
+      <c r="D206">
+        <v>0.9875203794865073</v>
+      </c>
+      <c r="E206">
+        <v>0.4966133419498234</v>
+      </c>
+      <c r="F206">
+        <v>0.2368118892449641</v>
+      </c>
+      <c r="G206">
+        <v>6.190101504088164</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" t="s">
+        <v>204</v>
+      </c>
+      <c r="B207">
+        <v>0.313115157480315</v>
+      </c>
+      <c r="C207">
+        <v>93.81182332677164</v>
+      </c>
+      <c r="D207">
+        <v>0.9880074643494157</v>
+      </c>
+      <c r="E207">
+        <v>0.5496110558192264</v>
+      </c>
+      <c r="F207">
+        <v>0.3140442018635019</v>
+      </c>
+      <c r="G207">
+        <v>5.777691349611097</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" t="s">
+        <v>205</v>
+      </c>
+      <c r="B208">
+        <v>0.4701648622047244</v>
+      </c>
+      <c r="C208">
+        <v>51.14413139763781</v>
+      </c>
+      <c r="D208">
+        <v>0.9880959665754595</v>
+      </c>
+      <c r="E208">
+        <v>0.6624996411587497</v>
+      </c>
+      <c r="F208">
+        <v>0.472419439912693</v>
+      </c>
+      <c r="G208">
+        <v>4.215527444433015</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" t="s">
+        <v>206</v>
+      </c>
+      <c r="B209">
+        <v>0.7501845472440944</v>
+      </c>
+      <c r="C209">
+        <v>48.28770915354332</v>
+      </c>
+      <c r="D209">
+        <v>0.9852175229585294</v>
+      </c>
+      <c r="E209">
+        <v>0.822967793369911</v>
+      </c>
+      <c r="F209">
+        <v>0.7502147445884026</v>
+      </c>
+      <c r="G209">
+        <v>2.587237107103623</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" t="s">
+        <v>207</v>
+      </c>
+      <c r="B210">
+        <v>0.4375615157480315</v>
+      </c>
+      <c r="C210">
+        <v>46.59934793307088</v>
+      </c>
+      <c r="D210">
+        <v>0.98653527335149</v>
+      </c>
+      <c r="E210">
+        <v>0.6538877772941458</v>
+      </c>
+      <c r="F210">
+        <v>0.4414567175905925</v>
+      </c>
+      <c r="G210">
+        <v>4.334551836342592</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" t="s">
+        <v>208</v>
+      </c>
+      <c r="B211">
+        <v>0.09990157480314961</v>
+      </c>
+      <c r="C211">
+        <v>66.80800935039372</v>
+      </c>
+      <c r="D211">
+        <v>0.987084781898055</v>
+      </c>
+      <c r="E211">
+        <v>0.4249795664658295</v>
+      </c>
+      <c r="F211">
+        <v>0.114077086082856</v>
+      </c>
+      <c r="G211">
+        <v>6.429987405488762</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" t="s">
+        <v>209</v>
+      </c>
+      <c r="B212">
+        <v>0.6236466535433071</v>
+      </c>
+      <c r="C212">
+        <v>44.3865034448819</v>
+      </c>
+      <c r="D212">
+        <v>0.9848442240412978</v>
+      </c>
+      <c r="E212">
+        <v>0.7511485793786234</v>
+      </c>
+      <c r="F212">
+        <v>0.6242834863406631</v>
+      </c>
+      <c r="G212">
+        <v>3.278683520331197</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" t="s">
+        <v>210</v>
+      </c>
+      <c r="B213">
+        <v>0.593503937007874</v>
+      </c>
+      <c r="C213">
+        <v>55.22176427165354</v>
+      </c>
+      <c r="D213">
+        <v>0.9848626999581386</v>
+      </c>
+      <c r="E213">
+        <v>0.7326146691914432</v>
+      </c>
+      <c r="F213">
+        <v>0.5943854814597465</v>
+      </c>
+      <c r="G213">
+        <v>3.482193356134553</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" t="s">
+        <v>211</v>
+      </c>
+      <c r="B214">
+        <v>0.06293061023622047</v>
+      </c>
+      <c r="C214">
+        <v>68.91738435039372</v>
+      </c>
+      <c r="D214">
+        <v>0.9882825966210246</v>
+      </c>
+      <c r="E214">
+        <v>0.4096567540915602</v>
+      </c>
+      <c r="F214">
+        <v>0.0787862567670836</v>
+      </c>
+      <c r="G214">
+        <v>6.770278217467253</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" t="s">
+        <v>212</v>
+      </c>
+      <c r="B215">
+        <v>0.4658587598425197</v>
+      </c>
+      <c r="C215">
+        <v>80.56299212598427</v>
+      </c>
+      <c r="D215">
+        <v>0.9894009477150981</v>
+      </c>
+      <c r="E215">
+        <v>0.6168169402590155</v>
+      </c>
+      <c r="F215">
+        <v>0.4661146768599765</v>
+      </c>
+      <c r="G215">
+        <v>4.67003889490912</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" t="s">
+        <v>213</v>
+      </c>
+      <c r="B216">
+        <v>0.4733021653543307</v>
+      </c>
+      <c r="C216">
+        <v>73.99544783464569</v>
+      </c>
+      <c r="D216">
+        <v>0.9880405826061048</v>
+      </c>
+      <c r="E216">
+        <v>0.6090273863927008</v>
+      </c>
+      <c r="F216">
+        <v>0.473547495159363</v>
+      </c>
+      <c r="G216">
+        <v>4.536452070242222</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" t="s">
+        <v>214</v>
+      </c>
+      <c r="B217">
+        <v>0.4663508858267716</v>
+      </c>
+      <c r="C217">
+        <v>162.2620570866142</v>
+      </c>
+      <c r="D217">
+        <v>0.9709234528098092</v>
+      </c>
+      <c r="E217">
+        <v>0.5924491204934477</v>
+      </c>
+      <c r="F217">
+        <v>0.4665714476750015</v>
+      </c>
+      <c r="G217">
+        <v>4.715023817683785</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" t="s">
+        <v>215</v>
+      </c>
+      <c r="B218">
+        <v>0.4732406496062992</v>
+      </c>
+      <c r="C218">
+        <v>82.58089320866142</v>
+      </c>
+      <c r="D218">
+        <v>0.9867894556365975</v>
+      </c>
+      <c r="E218">
+        <v>0.60867558476678</v>
+      </c>
+      <c r="F218">
+        <v>0.4734508963229271</v>
+      </c>
+      <c r="G218">
+        <v>4.608213133702636</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" t="s">
+        <v>216</v>
+      </c>
+      <c r="B219">
+        <v>0.4739173228346457</v>
+      </c>
+      <c r="C219">
+        <v>119.8246186023622</v>
+      </c>
+      <c r="D219">
+        <v>0.9828673439614823</v>
+      </c>
+      <c r="E219">
+        <v>0.6105397581637388</v>
+      </c>
+      <c r="F219">
+        <v>0.4741040032105269</v>
+      </c>
+      <c r="G219">
+        <v>4.697533358597384</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" t="s">
+        <v>217</v>
+      </c>
+      <c r="B220">
+        <v>0.4654896653543307</v>
+      </c>
+      <c r="C220">
+        <v>215.2648252952756</v>
+      </c>
+      <c r="D220">
+        <v>0.9579078690238877</v>
+      </c>
+      <c r="E220">
+        <v>0.5900473744685658</v>
+      </c>
+      <c r="F220">
+        <v>0.4657134099698169</v>
+      </c>
+      <c r="G220">
+        <v>4.683067209207512</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" t="s">
+        <v>218</v>
+      </c>
+      <c r="B221">
+        <v>0.4731176181102362</v>
+      </c>
+      <c r="C221">
+        <v>121.4749630905512</v>
+      </c>
+      <c r="D221">
+        <v>0.9861015016814676</v>
+      </c>
+      <c r="E221">
+        <v>0.6065251375437407</v>
+      </c>
+      <c r="F221">
+        <v>0.473318273587283</v>
+      </c>
+      <c r="G221">
+        <v>4.721972581798379</v>
       </c>
     </row>
   </sheetData>
